--- a/data/raw/election/voters-age-sex-education/2023/Manisa.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Manisa.xlsx
@@ -5,22 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-age_sex_education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
-    <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
+    <sheet name="18-10-2024-16:51:40-14930133195" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="46">
   <si>
     <t>Manisa</t>
   </si>
@@ -152,6 +151,12 @@
   </si>
   <si>
     <t>Yunusemre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -685,7 +690,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -705,10 +710,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="%20 - Vurgu1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1033,11 +1047,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N446"/>
+  <dimension ref="A1:N448"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A413" workbookViewId="0">
-      <selection activeCell="A447" sqref="A447:A448"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1052,24 +1064,24 @@
     <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.140625" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -2103,20 +2115,20 @@
       <c r="D30" s="5">
         <v>891</v>
       </c>
-      <c r="E30" s="5">
-        <v>4.4050000000000002</v>
-      </c>
-      <c r="F30" s="5">
-        <v>1.448</v>
-      </c>
-      <c r="G30" s="5">
-        <v>1.835</v>
-      </c>
-      <c r="H30" s="5">
-        <v>2.8260000000000001</v>
-      </c>
-      <c r="I30" s="5">
-        <v>1.5289999999999999</v>
+      <c r="E30" s="7">
+        <v>4405</v>
+      </c>
+      <c r="F30" s="7">
+        <v>1448</v>
+      </c>
+      <c r="G30" s="7">
+        <v>1835</v>
+      </c>
+      <c r="H30" s="7">
+        <v>2826</v>
+      </c>
+      <c r="I30" s="7">
+        <v>1529</v>
       </c>
       <c r="J30" s="5">
         <v>84</v>
@@ -2127,8 +2139,8 @@
       <c r="L30" s="5">
         <v>40</v>
       </c>
-      <c r="M30" s="5">
-        <v>13.286</v>
+      <c r="M30" s="7">
+        <v>13286</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -2189,11 +2201,11 @@
       <c r="F32" s="4">
         <v>2</v>
       </c>
-      <c r="G32" s="4">
-        <v>2.1749999999999998</v>
-      </c>
-      <c r="H32" s="4">
-        <v>4.6079999999999997</v>
+      <c r="G32" s="9">
+        <v>2175</v>
+      </c>
+      <c r="H32" s="9">
+        <v>4608</v>
       </c>
       <c r="I32" s="4">
         <v>920</v>
@@ -2207,8 +2219,8 @@
       <c r="L32" s="4">
         <v>61</v>
       </c>
-      <c r="M32" s="5">
-        <v>7.82</v>
+      <c r="M32" s="7">
+        <v>7820</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2228,14 +2240,14 @@
       <c r="F33" s="4">
         <v>1</v>
       </c>
-      <c r="G33" s="4">
-        <v>1.5640000000000001</v>
-      </c>
-      <c r="H33" s="4">
-        <v>4.516</v>
-      </c>
-      <c r="I33" s="4">
-        <v>1.4730000000000001</v>
+      <c r="G33" s="9">
+        <v>1564</v>
+      </c>
+      <c r="H33" s="9">
+        <v>4516</v>
+      </c>
+      <c r="I33" s="9">
+        <v>1473</v>
       </c>
       <c r="J33" s="4">
         <v>13</v>
@@ -2246,8 +2258,8 @@
       <c r="L33" s="4">
         <v>6</v>
       </c>
-      <c r="M33" s="5">
-        <v>7.633</v>
+      <c r="M33" s="7">
+        <v>7633</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2269,14 +2281,14 @@
       <c r="F34" s="4">
         <v>42</v>
       </c>
-      <c r="G34" s="4">
-        <v>1.5660000000000001</v>
-      </c>
-      <c r="H34" s="4">
-        <v>1.8680000000000001</v>
-      </c>
-      <c r="I34" s="4">
-        <v>2.242</v>
+      <c r="G34" s="9">
+        <v>1566</v>
+      </c>
+      <c r="H34" s="9">
+        <v>1868</v>
+      </c>
+      <c r="I34" s="9">
+        <v>2242</v>
       </c>
       <c r="J34" s="4">
         <v>103</v>
@@ -2287,8 +2299,8 @@
       <c r="L34" s="4">
         <v>15</v>
       </c>
-      <c r="M34" s="5">
-        <v>5.8810000000000002</v>
+      <c r="M34" s="7">
+        <v>5881</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2308,14 +2320,14 @@
       <c r="F35" s="4">
         <v>65</v>
       </c>
-      <c r="G35" s="4">
-        <v>1.3919999999999999</v>
-      </c>
-      <c r="H35" s="4">
-        <v>1.329</v>
-      </c>
-      <c r="I35" s="4">
-        <v>2.5859999999999999</v>
+      <c r="G35" s="9">
+        <v>1392</v>
+      </c>
+      <c r="H35" s="9">
+        <v>1329</v>
+      </c>
+      <c r="I35" s="9">
+        <v>2586</v>
       </c>
       <c r="J35" s="4">
         <v>168</v>
@@ -2326,8 +2338,8 @@
       <c r="L35" s="4">
         <v>12</v>
       </c>
-      <c r="M35" s="5">
-        <v>5.7009999999999996</v>
+      <c r="M35" s="7">
+        <v>5701</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2346,17 +2358,17 @@
       <c r="E36" s="4">
         <v>26</v>
       </c>
-      <c r="F36" s="4">
-        <v>1.163</v>
+      <c r="F36" s="9">
+        <v>1163</v>
       </c>
       <c r="G36" s="4">
         <v>719</v>
       </c>
-      <c r="H36" s="4">
-        <v>1.871</v>
-      </c>
-      <c r="I36" s="4">
-        <v>1.9530000000000001</v>
+      <c r="H36" s="9">
+        <v>1871</v>
+      </c>
+      <c r="I36" s="9">
+        <v>1953</v>
       </c>
       <c r="J36" s="4">
         <v>183</v>
@@ -2367,8 +2379,8 @@
       <c r="L36" s="4">
         <v>15</v>
       </c>
-      <c r="M36" s="5">
-        <v>5.9790000000000001</v>
+      <c r="M36" s="7">
+        <v>5979</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2385,17 +2397,17 @@
       <c r="E37" s="4">
         <v>50</v>
       </c>
-      <c r="F37" s="4">
-        <v>1.258</v>
+      <c r="F37" s="9">
+        <v>1258</v>
       </c>
       <c r="G37" s="4">
         <v>572</v>
       </c>
-      <c r="H37" s="4">
-        <v>1.472</v>
-      </c>
-      <c r="I37" s="4">
-        <v>2.09</v>
+      <c r="H37" s="9">
+        <v>1472</v>
+      </c>
+      <c r="I37" s="9">
+        <v>2090</v>
       </c>
       <c r="J37" s="4">
         <v>198</v>
@@ -2406,8 +2418,8 @@
       <c r="L37" s="4">
         <v>20</v>
       </c>
-      <c r="M37" s="5">
-        <v>5.7720000000000002</v>
+      <c r="M37" s="7">
+        <v>5772</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2426,17 +2438,17 @@
       <c r="E38" s="4">
         <v>455</v>
       </c>
-      <c r="F38" s="4">
-        <v>1.3480000000000001</v>
+      <c r="F38" s="9">
+        <v>1348</v>
       </c>
       <c r="G38" s="4">
         <v>725</v>
       </c>
-      <c r="H38" s="4">
-        <v>1.992</v>
-      </c>
-      <c r="I38" s="4">
-        <v>1.6180000000000001</v>
+      <c r="H38" s="9">
+        <v>1992</v>
+      </c>
+      <c r="I38" s="9">
+        <v>1618</v>
       </c>
       <c r="J38" s="4">
         <v>222</v>
@@ -2447,8 +2459,8 @@
       <c r="L38" s="4">
         <v>21</v>
       </c>
-      <c r="M38" s="5">
-        <v>6.431</v>
+      <c r="M38" s="7">
+        <v>6431</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2462,20 +2474,20 @@
       <c r="D39" s="4">
         <v>58</v>
       </c>
-      <c r="E39" s="4">
-        <v>1.107</v>
-      </c>
-      <c r="F39" s="4">
-        <v>1.0820000000000001</v>
+      <c r="E39" s="9">
+        <v>1107</v>
+      </c>
+      <c r="F39" s="9">
+        <v>1082</v>
       </c>
       <c r="G39" s="4">
         <v>660</v>
       </c>
-      <c r="H39" s="4">
-        <v>1.625</v>
-      </c>
-      <c r="I39" s="4">
-        <v>1.494</v>
+      <c r="H39" s="9">
+        <v>1625</v>
+      </c>
+      <c r="I39" s="9">
+        <v>1494</v>
       </c>
       <c r="J39" s="4">
         <v>170</v>
@@ -2486,8 +2498,8 @@
       <c r="L39" s="4">
         <v>20</v>
       </c>
-      <c r="M39" s="5">
-        <v>6.2549999999999999</v>
+      <c r="M39" s="7">
+        <v>6255</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2503,20 +2515,20 @@
       <c r="D40" s="4">
         <v>29</v>
       </c>
-      <c r="E40" s="4">
-        <v>1.139</v>
+      <c r="E40" s="9">
+        <v>1139</v>
       </c>
       <c r="F40" s="4">
         <v>971</v>
       </c>
-      <c r="G40" s="4">
-        <v>1.298</v>
-      </c>
-      <c r="H40" s="4">
-        <v>1.821</v>
-      </c>
-      <c r="I40" s="4">
-        <v>1.266</v>
+      <c r="G40" s="9">
+        <v>1298</v>
+      </c>
+      <c r="H40" s="9">
+        <v>1821</v>
+      </c>
+      <c r="I40" s="9">
+        <v>1266</v>
       </c>
       <c r="J40" s="4">
         <v>217</v>
@@ -2527,8 +2539,8 @@
       <c r="L40" s="4">
         <v>15</v>
       </c>
-      <c r="M40" s="5">
-        <v>6.7729999999999997</v>
+      <c r="M40" s="7">
+        <v>6773</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2542,20 +2554,20 @@
       <c r="D41" s="4">
         <v>73</v>
       </c>
-      <c r="E41" s="4">
-        <v>1.9219999999999999</v>
+      <c r="E41" s="9">
+        <v>1922</v>
       </c>
       <c r="F41" s="4">
         <v>705</v>
       </c>
-      <c r="G41" s="4">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="H41" s="4">
-        <v>1.637</v>
-      </c>
-      <c r="I41" s="4">
-        <v>1.0589999999999999</v>
+      <c r="G41" s="9">
+        <v>1090</v>
+      </c>
+      <c r="H41" s="9">
+        <v>1637</v>
+      </c>
+      <c r="I41" s="9">
+        <v>1059</v>
       </c>
       <c r="J41" s="4">
         <v>166</v>
@@ -2566,8 +2578,8 @@
       <c r="L41" s="4">
         <v>18</v>
       </c>
-      <c r="M41" s="5">
-        <v>6.7110000000000003</v>
+      <c r="M41" s="7">
+        <v>6711</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2583,20 +2595,20 @@
       <c r="D42" s="4">
         <v>25</v>
       </c>
-      <c r="E42" s="4">
-        <v>1.575</v>
-      </c>
-      <c r="F42" s="4">
-        <v>1.0589999999999999</v>
-      </c>
-      <c r="G42" s="4">
-        <v>1.125</v>
-      </c>
-      <c r="H42" s="4">
-        <v>1.47</v>
-      </c>
-      <c r="I42" s="4">
-        <v>1.0269999999999999</v>
+      <c r="E42" s="9">
+        <v>1575</v>
+      </c>
+      <c r="F42" s="9">
+        <v>1059</v>
+      </c>
+      <c r="G42" s="9">
+        <v>1125</v>
+      </c>
+      <c r="H42" s="9">
+        <v>1470</v>
+      </c>
+      <c r="I42" s="9">
+        <v>1027</v>
       </c>
       <c r="J42" s="4">
         <v>105</v>
@@ -2607,8 +2619,8 @@
       <c r="L42" s="4">
         <v>21</v>
       </c>
-      <c r="M42" s="5">
-        <v>6.44</v>
+      <c r="M42" s="7">
+        <v>6440</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2622,17 +2634,17 @@
       <c r="D43" s="4">
         <v>86</v>
       </c>
-      <c r="E43" s="4">
-        <v>2.3809999999999998</v>
+      <c r="E43" s="9">
+        <v>2381</v>
       </c>
       <c r="F43" s="4">
         <v>756</v>
       </c>
-      <c r="G43" s="4">
-        <v>1.0569999999999999</v>
-      </c>
-      <c r="H43" s="4">
-        <v>1.345</v>
+      <c r="G43" s="9">
+        <v>1057</v>
+      </c>
+      <c r="H43" s="9">
+        <v>1345</v>
       </c>
       <c r="I43" s="4">
         <v>674</v>
@@ -2646,8 +2658,8 @@
       <c r="L43" s="4">
         <v>18</v>
       </c>
-      <c r="M43" s="5">
-        <v>6.4169999999999998</v>
+      <c r="M43" s="7">
+        <v>6417</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2663,17 +2675,17 @@
       <c r="D44" s="4">
         <v>34</v>
       </c>
-      <c r="E44" s="4">
-        <v>1.726</v>
-      </c>
-      <c r="F44" s="4">
-        <v>1.056</v>
-      </c>
-      <c r="G44" s="4">
-        <v>1.091</v>
-      </c>
-      <c r="H44" s="4">
-        <v>1.1910000000000001</v>
+      <c r="E44" s="9">
+        <v>1726</v>
+      </c>
+      <c r="F44" s="9">
+        <v>1056</v>
+      </c>
+      <c r="G44" s="9">
+        <v>1091</v>
+      </c>
+      <c r="H44" s="9">
+        <v>1191</v>
       </c>
       <c r="I44" s="4">
         <v>762</v>
@@ -2687,8 +2699,8 @@
       <c r="L44" s="4">
         <v>18</v>
       </c>
-      <c r="M44" s="5">
-        <v>5.9790000000000001</v>
+      <c r="M44" s="7">
+        <v>5979</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2702,8 +2714,8 @@
       <c r="D45" s="4">
         <v>144</v>
       </c>
-      <c r="E45" s="4">
-        <v>2.7919999999999998</v>
+      <c r="E45" s="9">
+        <v>2792</v>
       </c>
       <c r="F45" s="4">
         <v>640</v>
@@ -2711,8 +2723,8 @@
       <c r="G45" s="4">
         <v>938</v>
       </c>
-      <c r="H45" s="4">
-        <v>1.016</v>
+      <c r="H45" s="9">
+        <v>1016</v>
       </c>
       <c r="I45" s="4">
         <v>429</v>
@@ -2726,8 +2738,8 @@
       <c r="L45" s="4">
         <v>26</v>
       </c>
-      <c r="M45" s="5">
-        <v>6.0839999999999996</v>
+      <c r="M45" s="7">
+        <v>6084</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2743,8 +2755,8 @@
       <c r="D46" s="4">
         <v>45</v>
       </c>
-      <c r="E46" s="4">
-        <v>2.1859999999999999</v>
+      <c r="E46" s="9">
+        <v>2186</v>
       </c>
       <c r="F46" s="4">
         <v>761</v>
@@ -2752,8 +2764,8 @@
       <c r="G46" s="4">
         <v>965</v>
       </c>
-      <c r="H46" s="4">
-        <v>1.0589999999999999</v>
+      <c r="H46" s="9">
+        <v>1059</v>
       </c>
       <c r="I46" s="4">
         <v>662</v>
@@ -2767,8 +2779,8 @@
       <c r="L46" s="4">
         <v>31</v>
       </c>
-      <c r="M46" s="5">
-        <v>5.7809999999999997</v>
+      <c r="M46" s="7">
+        <v>5781</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2782,8 +2794,8 @@
       <c r="D47" s="4">
         <v>283</v>
       </c>
-      <c r="E47" s="4">
-        <v>3.2690000000000001</v>
+      <c r="E47" s="9">
+        <v>3269</v>
       </c>
       <c r="F47" s="4">
         <v>415</v>
@@ -2806,8 +2818,8 @@
       <c r="L47" s="4">
         <v>39</v>
       </c>
-      <c r="M47" s="5">
-        <v>5.9669999999999996</v>
+      <c r="M47" s="7">
+        <v>5967</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2823,8 +2835,8 @@
       <c r="D48" s="4">
         <v>86</v>
       </c>
-      <c r="E48" s="4">
-        <v>2.8769999999999998</v>
+      <c r="E48" s="9">
+        <v>2877</v>
       </c>
       <c r="F48" s="4">
         <v>453</v>
@@ -2847,8 +2859,8 @@
       <c r="L48" s="4">
         <v>29</v>
       </c>
-      <c r="M48" s="5">
-        <v>5.444</v>
+      <c r="M48" s="7">
+        <v>5444</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -2862,8 +2874,8 @@
       <c r="D49" s="4">
         <v>435</v>
       </c>
-      <c r="E49" s="4">
-        <v>3.5870000000000002</v>
+      <c r="E49" s="9">
+        <v>3587</v>
       </c>
       <c r="F49" s="4">
         <v>206</v>
@@ -2886,8 +2898,8 @@
       <c r="L49" s="4">
         <v>14</v>
       </c>
-      <c r="M49" s="5">
-        <v>5.6040000000000001</v>
+      <c r="M49" s="7">
+        <v>5604</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2903,8 +2915,8 @@
       <c r="D50" s="4">
         <v>194</v>
       </c>
-      <c r="E50" s="4">
-        <v>2.8660000000000001</v>
+      <c r="E50" s="9">
+        <v>2866</v>
       </c>
       <c r="F50" s="4">
         <v>189</v>
@@ -2927,8 +2939,8 @@
       <c r="L50" s="4">
         <v>21</v>
       </c>
-      <c r="M50" s="5">
-        <v>4.4580000000000002</v>
+      <c r="M50" s="7">
+        <v>4458</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -2942,8 +2954,8 @@
       <c r="D51" s="4">
         <v>771</v>
       </c>
-      <c r="E51" s="4">
-        <v>2.887</v>
+      <c r="E51" s="9">
+        <v>2887</v>
       </c>
       <c r="F51" s="4">
         <v>58</v>
@@ -2966,8 +2978,8 @@
       <c r="L51" s="4">
         <v>24</v>
       </c>
-      <c r="M51" s="5">
-        <v>4.7080000000000002</v>
+      <c r="M51" s="7">
+        <v>4708</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -2983,8 +2995,8 @@
       <c r="D52" s="4">
         <v>236</v>
       </c>
-      <c r="E52" s="4">
-        <v>2.194</v>
+      <c r="E52" s="9">
+        <v>2194</v>
       </c>
       <c r="F52" s="4">
         <v>51</v>
@@ -3007,8 +3019,8 @@
       <c r="L52" s="4">
         <v>15</v>
       </c>
-      <c r="M52" s="5">
-        <v>3.1379999999999999</v>
+      <c r="M52" s="7">
+        <v>3138</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -3022,8 +3034,8 @@
       <c r="D53" s="4">
         <v>905</v>
       </c>
-      <c r="E53" s="4">
-        <v>2.1040000000000001</v>
+      <c r="E53" s="9">
+        <v>2104</v>
       </c>
       <c r="F53" s="4">
         <v>16</v>
@@ -3046,8 +3058,8 @@
       <c r="L53" s="4">
         <v>26</v>
       </c>
-      <c r="M53" s="5">
-        <v>3.6619999999999999</v>
+      <c r="M53" s="7">
+        <v>3662</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -3063,8 +3075,8 @@
       <c r="D54" s="4">
         <v>671</v>
       </c>
-      <c r="E54" s="4">
-        <v>2.258</v>
+      <c r="E54" s="9">
+        <v>2258</v>
       </c>
       <c r="F54" s="4">
         <v>21</v>
@@ -3087,8 +3099,8 @@
       <c r="L54" s="4">
         <v>19</v>
       </c>
-      <c r="M54" s="5">
-        <v>3.5510000000000002</v>
+      <c r="M54" s="7">
+        <v>3551</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -3099,11 +3111,11 @@
       <c r="C55" s="4">
         <v>884</v>
       </c>
-      <c r="D55" s="4">
-        <v>1.8460000000000001</v>
-      </c>
-      <c r="E55" s="4">
-        <v>2.605</v>
+      <c r="D55" s="9">
+        <v>1846</v>
+      </c>
+      <c r="E55" s="9">
+        <v>2605</v>
       </c>
       <c r="F55" s="4">
         <v>8</v>
@@ -3126,8 +3138,8 @@
       <c r="L55" s="4">
         <v>20</v>
       </c>
-      <c r="M55" s="5">
-        <v>5.6459999999999999</v>
+      <c r="M55" s="7">
+        <v>5646</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -3135,29 +3147,29 @@
         <v>12</v>
       </c>
       <c r="B56" s="6"/>
-      <c r="C56" s="5">
-        <v>2.1059999999999999</v>
-      </c>
-      <c r="D56" s="5">
-        <v>6.21</v>
-      </c>
-      <c r="E56" s="5">
-        <v>40.167999999999999</v>
-      </c>
-      <c r="F56" s="5">
-        <v>12.326000000000001</v>
-      </c>
-      <c r="G56" s="5">
-        <v>19.673999999999999</v>
-      </c>
-      <c r="H56" s="5">
-        <v>32.432000000000002</v>
-      </c>
-      <c r="I56" s="5">
-        <v>22.346</v>
-      </c>
-      <c r="J56" s="5">
-        <v>1.885</v>
+      <c r="C56" s="7">
+        <v>2106</v>
+      </c>
+      <c r="D56" s="7">
+        <v>6210</v>
+      </c>
+      <c r="E56" s="7">
+        <v>40168</v>
+      </c>
+      <c r="F56" s="7">
+        <v>12326</v>
+      </c>
+      <c r="G56" s="7">
+        <v>19674</v>
+      </c>
+      <c r="H56" s="7">
+        <v>32432</v>
+      </c>
+      <c r="I56" s="7">
+        <v>22346</v>
+      </c>
+      <c r="J56" s="7">
+        <v>1885</v>
       </c>
       <c r="K56" s="5">
         <v>164</v>
@@ -3165,8 +3177,8 @@
       <c r="L56" s="5">
         <v>524</v>
       </c>
-      <c r="M56" s="5">
-        <v>137.83500000000001</v>
+      <c r="M56" s="7">
+        <v>137835</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -3227,11 +3239,11 @@
       <c r="F58" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G58" s="4">
-        <v>1.504</v>
-      </c>
-      <c r="H58" s="4">
-        <v>2.774</v>
+      <c r="G58" s="9">
+        <v>1504</v>
+      </c>
+      <c r="H58" s="9">
+        <v>2774</v>
       </c>
       <c r="I58" s="4">
         <v>444</v>
@@ -3245,8 +3257,8 @@
       <c r="L58" s="4">
         <v>31</v>
       </c>
-      <c r="M58" s="5">
-        <v>4.7779999999999996</v>
+      <c r="M58" s="7">
+        <v>4778</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -3266,11 +3278,11 @@
       <c r="F59" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G59" s="4">
-        <v>1.2949999999999999</v>
-      </c>
-      <c r="H59" s="4">
-        <v>2.5779999999999998</v>
+      <c r="G59" s="9">
+        <v>1295</v>
+      </c>
+      <c r="H59" s="9">
+        <v>2578</v>
       </c>
       <c r="I59" s="4">
         <v>782</v>
@@ -3284,8 +3296,8 @@
       <c r="L59" s="4">
         <v>7</v>
       </c>
-      <c r="M59" s="5">
-        <v>4.7039999999999997</v>
+      <c r="M59" s="7">
+        <v>4704</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -3307,14 +3319,14 @@
       <c r="F60" s="4">
         <v>30</v>
       </c>
-      <c r="G60" s="4">
-        <v>1.1140000000000001</v>
-      </c>
-      <c r="H60" s="4">
-        <v>1.01</v>
-      </c>
-      <c r="I60" s="4">
-        <v>1.119</v>
+      <c r="G60" s="9">
+        <v>1114</v>
+      </c>
+      <c r="H60" s="9">
+        <v>1010</v>
+      </c>
+      <c r="I60" s="9">
+        <v>1119</v>
       </c>
       <c r="J60" s="4">
         <v>58</v>
@@ -3325,8 +3337,8 @@
       <c r="L60" s="4">
         <v>10</v>
       </c>
-      <c r="M60" s="5">
-        <v>3.3860000000000001</v>
+      <c r="M60" s="7">
+        <v>3386</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -3346,14 +3358,14 @@
       <c r="F61" s="4">
         <v>54</v>
       </c>
-      <c r="G61" s="4">
-        <v>1.085</v>
+      <c r="G61" s="9">
+        <v>1085</v>
       </c>
       <c r="H61" s="4">
         <v>756</v>
       </c>
-      <c r="I61" s="4">
-        <v>1.1930000000000001</v>
+      <c r="I61" s="9">
+        <v>1193</v>
       </c>
       <c r="J61" s="4">
         <v>80</v>
@@ -3364,8 +3376,8 @@
       <c r="L61" s="4">
         <v>8</v>
       </c>
-      <c r="M61" s="5">
-        <v>3.2789999999999999</v>
+      <c r="M61" s="7">
+        <v>3279</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -3405,8 +3417,8 @@
       <c r="L62" s="4">
         <v>9</v>
       </c>
-      <c r="M62" s="5">
-        <v>3.2189999999999999</v>
+      <c r="M62" s="7">
+        <v>3219</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -3444,8 +3456,8 @@
       <c r="L63" s="4">
         <v>10</v>
       </c>
-      <c r="M63" s="5">
-        <v>3.2549999999999999</v>
+      <c r="M63" s="7">
+        <v>3255</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -3470,8 +3482,8 @@
       <c r="G64" s="4">
         <v>358</v>
       </c>
-      <c r="H64" s="4">
-        <v>1.0960000000000001</v>
+      <c r="H64" s="9">
+        <v>1096</v>
       </c>
       <c r="I64" s="4">
         <v>765</v>
@@ -3485,8 +3497,8 @@
       <c r="L64" s="4">
         <v>5</v>
       </c>
-      <c r="M64" s="5">
-        <v>3.633</v>
+      <c r="M64" s="7">
+        <v>3633</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -3524,8 +3536,8 @@
       <c r="L65" s="4">
         <v>11</v>
       </c>
-      <c r="M65" s="5">
-        <v>3.6920000000000002</v>
+      <c r="M65" s="7">
+        <v>3692</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -3541,8 +3553,8 @@
       <c r="D66" s="4">
         <v>24</v>
       </c>
-      <c r="E66" s="4">
-        <v>1.018</v>
+      <c r="E66" s="9">
+        <v>1018</v>
       </c>
       <c r="F66" s="4">
         <v>389</v>
@@ -3550,8 +3562,8 @@
       <c r="G66" s="4">
         <v>672</v>
       </c>
-      <c r="H66" s="4">
-        <v>1.115</v>
+      <c r="H66" s="9">
+        <v>1115</v>
       </c>
       <c r="I66" s="4">
         <v>596</v>
@@ -3565,8 +3577,8 @@
       <c r="L66" s="4">
         <v>12</v>
       </c>
-      <c r="M66" s="5">
-        <v>3.9279999999999999</v>
+      <c r="M66" s="7">
+        <v>3928</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -3580,8 +3592,8 @@
       <c r="D67" s="4">
         <v>59</v>
       </c>
-      <c r="E67" s="4">
-        <v>1.63</v>
+      <c r="E67" s="9">
+        <v>1630</v>
       </c>
       <c r="F67" s="4">
         <v>285</v>
@@ -3604,8 +3616,8 @@
       <c r="L67" s="4">
         <v>16</v>
       </c>
-      <c r="M67" s="5">
-        <v>3.7909999999999999</v>
+      <c r="M67" s="7">
+        <v>3791</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -3621,8 +3633,8 @@
       <c r="D68" s="4">
         <v>6</v>
       </c>
-      <c r="E68" s="4">
-        <v>1.3129999999999999</v>
+      <c r="E68" s="9">
+        <v>1313</v>
       </c>
       <c r="F68" s="4">
         <v>425</v>
@@ -3645,8 +3657,8 @@
       <c r="L68" s="4">
         <v>12</v>
       </c>
-      <c r="M68" s="5">
-        <v>3.7240000000000002</v>
+      <c r="M68" s="7">
+        <v>3724</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -3660,8 +3672,8 @@
       <c r="D69" s="4">
         <v>49</v>
       </c>
-      <c r="E69" s="4">
-        <v>1.8939999999999999</v>
+      <c r="E69" s="9">
+        <v>1894</v>
       </c>
       <c r="F69" s="4">
         <v>288</v>
@@ -3684,8 +3696,8 @@
       <c r="L69" s="4">
         <v>21</v>
       </c>
-      <c r="M69" s="5">
-        <v>3.5219999999999998</v>
+      <c r="M69" s="7">
+        <v>3522</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -3701,8 +3713,8 @@
       <c r="D70" s="4">
         <v>27</v>
       </c>
-      <c r="E70" s="4">
-        <v>1.4910000000000001</v>
+      <c r="E70" s="9">
+        <v>1491</v>
       </c>
       <c r="F70" s="4">
         <v>404</v>
@@ -3725,8 +3737,8 @@
       <c r="L70" s="4">
         <v>16</v>
       </c>
-      <c r="M70" s="5">
-        <v>3.57</v>
+      <c r="M70" s="7">
+        <v>3570</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -3740,8 +3752,8 @@
       <c r="D71" s="4">
         <v>104</v>
       </c>
-      <c r="E71" s="4">
-        <v>2.161</v>
+      <c r="E71" s="9">
+        <v>2161</v>
       </c>
       <c r="F71" s="4">
         <v>227</v>
@@ -3764,8 +3776,8 @@
       <c r="L71" s="4">
         <v>19</v>
       </c>
-      <c r="M71" s="5">
-        <v>3.4990000000000001</v>
+      <c r="M71" s="7">
+        <v>3499</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -3781,8 +3793,8 @@
       <c r="D72" s="4">
         <v>23</v>
       </c>
-      <c r="E72" s="4">
-        <v>1.6579999999999999</v>
+      <c r="E72" s="9">
+        <v>1658</v>
       </c>
       <c r="F72" s="4">
         <v>318</v>
@@ -3805,8 +3817,8 @@
       <c r="L72" s="4">
         <v>18</v>
       </c>
-      <c r="M72" s="5">
-        <v>3.3570000000000002</v>
+      <c r="M72" s="7">
+        <v>3357</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -3820,8 +3832,8 @@
       <c r="D73" s="4">
         <v>185</v>
       </c>
-      <c r="E73" s="4">
-        <v>2.359</v>
+      <c r="E73" s="9">
+        <v>2359</v>
       </c>
       <c r="F73" s="4">
         <v>120</v>
@@ -3844,8 +3856,8 @@
       <c r="L73" s="4">
         <v>9</v>
       </c>
-      <c r="M73" s="5">
-        <v>3.4620000000000002</v>
+      <c r="M73" s="7">
+        <v>3462</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -3861,8 +3873,8 @@
       <c r="D74" s="4">
         <v>46</v>
       </c>
-      <c r="E74" s="4">
-        <v>1.9279999999999999</v>
+      <c r="E74" s="9">
+        <v>1928</v>
       </c>
       <c r="F74" s="4">
         <v>169</v>
@@ -3885,8 +3897,8 @@
       <c r="L74" s="4">
         <v>11</v>
       </c>
-      <c r="M74" s="5">
-        <v>3.1739999999999999</v>
+      <c r="M74" s="7">
+        <v>3174</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -3900,8 +3912,8 @@
       <c r="D75" s="4">
         <v>300</v>
       </c>
-      <c r="E75" s="4">
-        <v>2.1379999999999999</v>
+      <c r="E75" s="9">
+        <v>2138</v>
       </c>
       <c r="F75" s="4">
         <v>73</v>
@@ -3924,8 +3936,8 @@
       <c r="L75" s="4">
         <v>9</v>
       </c>
-      <c r="M75" s="5">
-        <v>3.0750000000000002</v>
+      <c r="M75" s="7">
+        <v>3075</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -3941,8 +3953,8 @@
       <c r="D76" s="4">
         <v>92</v>
       </c>
-      <c r="E76" s="4">
-        <v>1.615</v>
+      <c r="E76" s="9">
+        <v>1615</v>
       </c>
       <c r="F76" s="4">
         <v>77</v>
@@ -3965,8 +3977,8 @@
       <c r="L76" s="4">
         <v>10</v>
       </c>
-      <c r="M76" s="5">
-        <v>2.464</v>
+      <c r="M76" s="7">
+        <v>2464</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -3980,8 +3992,8 @@
       <c r="D77" s="4">
         <v>451</v>
       </c>
-      <c r="E77" s="4">
-        <v>1.7</v>
+      <c r="E77" s="9">
+        <v>1700</v>
       </c>
       <c r="F77" s="4">
         <v>25</v>
@@ -4004,8 +4016,8 @@
       <c r="L77" s="4">
         <v>5</v>
       </c>
-      <c r="M77" s="5">
-        <v>2.6709999999999998</v>
+      <c r="M77" s="7">
+        <v>2671</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -4021,8 +4033,8 @@
       <c r="D78" s="4">
         <v>132</v>
       </c>
-      <c r="E78" s="4">
-        <v>1.2</v>
+      <c r="E78" s="9">
+        <v>1200</v>
       </c>
       <c r="F78" s="4">
         <v>19</v>
@@ -4045,8 +4057,8 @@
       <c r="L78" s="4">
         <v>5</v>
       </c>
-      <c r="M78" s="5">
-        <v>1.6619999999999999</v>
+      <c r="M78" s="7">
+        <v>1662</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -4060,8 +4072,8 @@
       <c r="D79" s="4">
         <v>476</v>
       </c>
-      <c r="E79" s="4">
-        <v>1.0169999999999999</v>
+      <c r="E79" s="9">
+        <v>1017</v>
       </c>
       <c r="F79" s="4">
         <v>7</v>
@@ -4084,8 +4096,8 @@
       <c r="L79" s="4">
         <v>5</v>
       </c>
-      <c r="M79" s="5">
-        <v>1.9950000000000001</v>
+      <c r="M79" s="7">
+        <v>1995</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -4101,8 +4113,8 @@
       <c r="D80" s="4">
         <v>403</v>
       </c>
-      <c r="E80" s="4">
-        <v>1.1970000000000001</v>
+      <c r="E80" s="9">
+        <v>1197</v>
       </c>
       <c r="F80" s="4">
         <v>14</v>
@@ -4125,8 +4137,8 @@
       <c r="L80" s="4">
         <v>11</v>
       </c>
-      <c r="M80" s="5">
-        <v>1.96</v>
+      <c r="M80" s="7">
+        <v>1960</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -4140,8 +4152,8 @@
       <c r="D81" s="4">
         <v>845</v>
       </c>
-      <c r="E81" s="4">
-        <v>1</v>
+      <c r="E81" s="9">
+        <v>1000</v>
       </c>
       <c r="F81" s="4">
         <v>7</v>
@@ -4164,8 +4176,8 @@
       <c r="L81" s="4">
         <v>5</v>
       </c>
-      <c r="M81" s="5">
-        <v>2.9220000000000002</v>
+      <c r="M81" s="7">
+        <v>2922</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -4173,26 +4185,26 @@
         <v>12</v>
       </c>
       <c r="B82" s="6"/>
-      <c r="C82" s="5">
-        <v>2.2839999999999998</v>
-      </c>
-      <c r="D82" s="5">
-        <v>3.5430000000000001</v>
-      </c>
-      <c r="E82" s="5">
-        <v>27.006</v>
-      </c>
-      <c r="F82" s="5">
-        <v>6.1050000000000004</v>
-      </c>
-      <c r="G82" s="5">
-        <v>11.489000000000001</v>
-      </c>
-      <c r="H82" s="5">
-        <v>17.016999999999999</v>
-      </c>
-      <c r="I82" s="5">
-        <v>10.098000000000001</v>
+      <c r="C82" s="7">
+        <v>2284</v>
+      </c>
+      <c r="D82" s="7">
+        <v>3543</v>
+      </c>
+      <c r="E82" s="7">
+        <v>27006</v>
+      </c>
+      <c r="F82" s="7">
+        <v>6105</v>
+      </c>
+      <c r="G82" s="7">
+        <v>11489</v>
+      </c>
+      <c r="H82" s="7">
+        <v>17017</v>
+      </c>
+      <c r="I82" s="7">
+        <v>10098</v>
       </c>
       <c r="J82" s="5">
         <v>847</v>
@@ -4203,8 +4215,8 @@
       <c r="L82" s="5">
         <v>275</v>
       </c>
-      <c r="M82" s="5">
-        <v>78.721999999999994</v>
+      <c r="M82" s="7">
+        <v>78722</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -4268,8 +4280,8 @@
       <c r="G84" s="4">
         <v>265</v>
       </c>
-      <c r="H84" s="4">
-        <v>1.0780000000000001</v>
+      <c r="H84" s="9">
+        <v>1078</v>
       </c>
       <c r="I84" s="4">
         <v>228</v>
@@ -4283,8 +4295,8 @@
       <c r="L84" s="4">
         <v>12</v>
       </c>
-      <c r="M84" s="5">
-        <v>1.59</v>
+      <c r="M84" s="7">
+        <v>1590</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -4307,8 +4319,8 @@
       <c r="G85" s="4">
         <v>207</v>
       </c>
-      <c r="H85" s="4">
-        <v>1.01</v>
+      <c r="H85" s="9">
+        <v>1010</v>
       </c>
       <c r="I85" s="4">
         <v>385</v>
@@ -4322,8 +4334,8 @@
       <c r="L85" s="4">
         <v>1</v>
       </c>
-      <c r="M85" s="5">
-        <v>1.61</v>
+      <c r="M85" s="7">
+        <v>1610</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -4603,8 +4615,8 @@
       <c r="L92" s="4">
         <v>2</v>
       </c>
-      <c r="M92" s="5">
-        <v>1.131</v>
+      <c r="M92" s="7">
+        <v>1131</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -4642,8 +4654,8 @@
       <c r="L93" s="4">
         <v>3</v>
       </c>
-      <c r="M93" s="5">
-        <v>1.1459999999999999</v>
+      <c r="M93" s="7">
+        <v>1146</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -4683,8 +4695,8 @@
       <c r="L94" s="4">
         <v>1</v>
       </c>
-      <c r="M94" s="5">
-        <v>1.2809999999999999</v>
+      <c r="M94" s="7">
+        <v>1281</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -4722,8 +4734,8 @@
       <c r="L95" s="4">
         <v>1</v>
       </c>
-      <c r="M95" s="5">
-        <v>1.2709999999999999</v>
+      <c r="M95" s="7">
+        <v>1271</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -4763,8 +4775,8 @@
       <c r="L96" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M96" s="5">
-        <v>1.377</v>
+      <c r="M96" s="7">
+        <v>1377</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -4802,8 +4814,8 @@
       <c r="L97" s="4">
         <v>1</v>
       </c>
-      <c r="M97" s="5">
-        <v>1.4530000000000001</v>
+      <c r="M97" s="7">
+        <v>1453</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -4843,8 +4855,8 @@
       <c r="L98" s="4">
         <v>1</v>
       </c>
-      <c r="M98" s="5">
-        <v>1.355</v>
+      <c r="M98" s="7">
+        <v>1355</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -4882,8 +4894,8 @@
       <c r="L99" s="4">
         <v>1</v>
       </c>
-      <c r="M99" s="5">
-        <v>1.415</v>
+      <c r="M99" s="7">
+        <v>1415</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -4923,8 +4935,8 @@
       <c r="L100" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M100" s="5">
-        <v>1.3109999999999999</v>
+      <c r="M100" s="7">
+        <v>1311</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -4938,8 +4950,8 @@
       <c r="D101" s="4">
         <v>115</v>
       </c>
-      <c r="E101" s="4">
-        <v>1.008</v>
+      <c r="E101" s="9">
+        <v>1008</v>
       </c>
       <c r="F101" s="4">
         <v>131</v>
@@ -4962,8 +4974,8 @@
       <c r="L101" s="4">
         <v>1</v>
       </c>
-      <c r="M101" s="5">
-        <v>1.472</v>
+      <c r="M101" s="7">
+        <v>1472</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
@@ -5003,8 +5015,8 @@
       <c r="L102" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M102" s="5">
-        <v>1.151</v>
+      <c r="M102" s="7">
+        <v>1151</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
@@ -5042,8 +5054,8 @@
       <c r="L103" s="4">
         <v>3</v>
       </c>
-      <c r="M103" s="5">
-        <v>1.272</v>
+      <c r="M103" s="7">
+        <v>1272</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
@@ -5122,8 +5134,8 @@
       <c r="L105" s="4">
         <v>2</v>
       </c>
-      <c r="M105" s="5">
-        <v>1.0880000000000001</v>
+      <c r="M105" s="7">
+        <v>1088</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
@@ -5163,8 +5175,8 @@
       <c r="L106" s="4">
         <v>2</v>
       </c>
-      <c r="M106" s="5">
-        <v>1.2709999999999999</v>
+      <c r="M106" s="7">
+        <v>1271</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
@@ -5202,8 +5214,8 @@
       <c r="L107" s="4">
         <v>2</v>
       </c>
-      <c r="M107" s="5">
-        <v>1.6459999999999999</v>
+      <c r="M107" s="7">
+        <v>1646</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
@@ -5214,23 +5226,23 @@
       <c r="C108" s="5">
         <v>615</v>
       </c>
-      <c r="D108" s="5">
-        <v>1.589</v>
-      </c>
-      <c r="E108" s="5">
-        <v>11.337999999999999</v>
-      </c>
-      <c r="F108" s="5">
-        <v>2.8220000000000001</v>
-      </c>
-      <c r="G108" s="5">
-        <v>2.9580000000000002</v>
-      </c>
-      <c r="H108" s="5">
-        <v>5.6619999999999999</v>
-      </c>
-      <c r="I108" s="5">
-        <v>3.4969999999999999</v>
+      <c r="D108" s="7">
+        <v>1589</v>
+      </c>
+      <c r="E108" s="7">
+        <v>11338</v>
+      </c>
+      <c r="F108" s="7">
+        <v>2822</v>
+      </c>
+      <c r="G108" s="7">
+        <v>2958</v>
+      </c>
+      <c r="H108" s="7">
+        <v>5662</v>
+      </c>
+      <c r="I108" s="7">
+        <v>3497</v>
       </c>
       <c r="J108" s="5">
         <v>345</v>
@@ -5241,8 +5253,8 @@
       <c r="L108" s="5">
         <v>44</v>
       </c>
-      <c r="M108" s="5">
-        <v>28.933</v>
+      <c r="M108" s="7">
+        <v>28933</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -6255,20 +6267,20 @@
       <c r="D134" s="5">
         <v>761</v>
       </c>
-      <c r="E134" s="5">
-        <v>4.2249999999999996</v>
-      </c>
-      <c r="F134" s="5">
-        <v>1.0820000000000001</v>
-      </c>
-      <c r="G134" s="5">
-        <v>1.911</v>
-      </c>
-      <c r="H134" s="5">
-        <v>2.0830000000000002</v>
-      </c>
-      <c r="I134" s="5">
-        <v>1.075</v>
+      <c r="E134" s="7">
+        <v>4225</v>
+      </c>
+      <c r="F134" s="7">
+        <v>1082</v>
+      </c>
+      <c r="G134" s="7">
+        <v>1911</v>
+      </c>
+      <c r="H134" s="7">
+        <v>2083</v>
+      </c>
+      <c r="I134" s="7">
+        <v>1075</v>
       </c>
       <c r="J134" s="5">
         <v>67</v>
@@ -6279,8 +6291,8 @@
       <c r="L134" s="5">
         <v>31</v>
       </c>
-      <c r="M134" s="5">
-        <v>11.683</v>
+      <c r="M134" s="7">
+        <v>11683</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -6359,8 +6371,8 @@
       <c r="L136" s="4">
         <v>11</v>
       </c>
-      <c r="M136" s="5">
-        <v>1.083</v>
+      <c r="M136" s="7">
+        <v>1083</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -6398,8 +6410,8 @@
       <c r="L137" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M137" s="5">
-        <v>1.07</v>
+      <c r="M137" s="7">
+        <v>1070</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -6759,8 +6771,8 @@
       <c r="L146" s="4">
         <v>3</v>
       </c>
-      <c r="M146" s="5">
-        <v>1.0209999999999999</v>
+      <c r="M146" s="7">
+        <v>1021</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
@@ -6839,8 +6851,8 @@
       <c r="L148" s="4">
         <v>2</v>
       </c>
-      <c r="M148" s="5">
-        <v>1.0249999999999999</v>
+      <c r="M148" s="7">
+        <v>1025</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
@@ -6878,8 +6890,8 @@
       <c r="L149" s="4">
         <v>8</v>
       </c>
-      <c r="M149" s="5">
-        <v>1.091</v>
+      <c r="M149" s="7">
+        <v>1091</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
@@ -6919,8 +6931,8 @@
       <c r="L150" s="4">
         <v>1</v>
       </c>
-      <c r="M150" s="5">
-        <v>1.0660000000000001</v>
+      <c r="M150" s="7">
+        <v>1066</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
@@ -6958,8 +6970,8 @@
       <c r="L151" s="4">
         <v>3</v>
       </c>
-      <c r="M151" s="5">
-        <v>1.089</v>
+      <c r="M151" s="7">
+        <v>1089</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
@@ -6999,8 +7011,8 @@
       <c r="L152" s="4">
         <v>3</v>
       </c>
-      <c r="M152" s="5">
-        <v>1.119</v>
+      <c r="M152" s="7">
+        <v>1119</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
@@ -7038,8 +7050,8 @@
       <c r="L153" s="4">
         <v>1</v>
       </c>
-      <c r="M153" s="5">
-        <v>1.1830000000000001</v>
+      <c r="M153" s="7">
+        <v>1183</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
@@ -7118,8 +7130,8 @@
       <c r="L155" s="4">
         <v>1</v>
       </c>
-      <c r="M155" s="5">
-        <v>1.103</v>
+      <c r="M155" s="7">
+        <v>1103</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
@@ -7278,8 +7290,8 @@
       <c r="L159" s="4">
         <v>1</v>
       </c>
-      <c r="M159" s="5">
-        <v>1.355</v>
+      <c r="M159" s="7">
+        <v>1355</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
@@ -7290,23 +7302,23 @@
       <c r="C160" s="5">
         <v>373</v>
       </c>
-      <c r="D160" s="5">
-        <v>1.871</v>
-      </c>
-      <c r="E160" s="5">
-        <v>9.0039999999999996</v>
-      </c>
-      <c r="F160" s="5">
-        <v>2.11</v>
-      </c>
-      <c r="G160" s="5">
-        <v>2.1960000000000002</v>
-      </c>
-      <c r="H160" s="5">
-        <v>3.7269999999999999</v>
-      </c>
-      <c r="I160" s="5">
-        <v>2.331</v>
+      <c r="D160" s="7">
+        <v>1871</v>
+      </c>
+      <c r="E160" s="7">
+        <v>9004</v>
+      </c>
+      <c r="F160" s="7">
+        <v>2110</v>
+      </c>
+      <c r="G160" s="7">
+        <v>2196</v>
+      </c>
+      <c r="H160" s="7">
+        <v>3727</v>
+      </c>
+      <c r="I160" s="7">
+        <v>2331</v>
       </c>
       <c r="J160" s="5">
         <v>223</v>
@@ -7317,8 +7329,8 @@
       <c r="L160" s="5">
         <v>65</v>
       </c>
-      <c r="M160" s="5">
-        <v>21.919</v>
+      <c r="M160" s="7">
+        <v>21919</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -7382,8 +7394,8 @@
       <c r="G162" s="4">
         <v>523</v>
       </c>
-      <c r="H162" s="4">
-        <v>1.4219999999999999</v>
+      <c r="H162" s="9">
+        <v>1422</v>
       </c>
       <c r="I162" s="4">
         <v>712</v>
@@ -7397,8 +7409,8 @@
       <c r="L162" s="4">
         <v>10</v>
       </c>
-      <c r="M162" s="5">
-        <v>2.6930000000000001</v>
+      <c r="M162" s="7">
+        <v>2693</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
@@ -7436,8 +7448,8 @@
       <c r="L163" s="4">
         <v>1</v>
       </c>
-      <c r="M163" s="5">
-        <v>1.7050000000000001</v>
+      <c r="M163" s="7">
+        <v>1705</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
@@ -7477,8 +7489,8 @@
       <c r="L164" s="4">
         <v>6</v>
       </c>
-      <c r="M164" s="5">
-        <v>1.748</v>
+      <c r="M164" s="7">
+        <v>1748</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
@@ -7516,8 +7528,8 @@
       <c r="L165" s="4">
         <v>4</v>
       </c>
-      <c r="M165" s="5">
-        <v>1.1140000000000001</v>
+      <c r="M165" s="7">
+        <v>1114</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
@@ -7557,8 +7569,8 @@
       <c r="L166" s="4">
         <v>3</v>
       </c>
-      <c r="M166" s="5">
-        <v>1.1930000000000001</v>
+      <c r="M166" s="7">
+        <v>1193</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
@@ -7596,8 +7608,8 @@
       <c r="L167" s="4">
         <v>9</v>
       </c>
-      <c r="M167" s="5">
-        <v>1.0620000000000001</v>
+      <c r="M167" s="7">
+        <v>1062</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
@@ -7637,8 +7649,8 @@
       <c r="L168" s="4">
         <v>1</v>
       </c>
-      <c r="M168" s="5">
-        <v>1.2629999999999999</v>
+      <c r="M168" s="7">
+        <v>1263</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
@@ -7676,8 +7688,8 @@
       <c r="L169" s="4">
         <v>11</v>
       </c>
-      <c r="M169" s="5">
-        <v>1.2090000000000001</v>
+      <c r="M169" s="7">
+        <v>1209</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
@@ -7717,8 +7729,8 @@
       <c r="L170" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M170" s="5">
-        <v>1.329</v>
+      <c r="M170" s="7">
+        <v>1329</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
@@ -7756,8 +7768,8 @@
       <c r="L171" s="4">
         <v>4</v>
       </c>
-      <c r="M171" s="5">
-        <v>1.2470000000000001</v>
+      <c r="M171" s="7">
+        <v>1247</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
@@ -7797,8 +7809,8 @@
       <c r="L172" s="4">
         <v>1</v>
       </c>
-      <c r="M172" s="5">
-        <v>1.2889999999999999</v>
+      <c r="M172" s="7">
+        <v>1289</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
@@ -7836,8 +7848,8 @@
       <c r="L173" s="4">
         <v>4</v>
       </c>
-      <c r="M173" s="5">
-        <v>1.339</v>
+      <c r="M173" s="7">
+        <v>1339</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
@@ -7877,8 +7889,8 @@
       <c r="L174" s="4">
         <v>1</v>
       </c>
-      <c r="M174" s="5">
-        <v>1.2250000000000001</v>
+      <c r="M174" s="7">
+        <v>1225</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
@@ -7916,8 +7928,8 @@
       <c r="L175" s="4">
         <v>2</v>
       </c>
-      <c r="M175" s="5">
-        <v>1.2669999999999999</v>
+      <c r="M175" s="7">
+        <v>1267</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
@@ -7957,8 +7969,8 @@
       <c r="L176" s="4">
         <v>3</v>
       </c>
-      <c r="M176" s="5">
-        <v>1.2170000000000001</v>
+      <c r="M176" s="7">
+        <v>1217</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
@@ -7996,8 +8008,8 @@
       <c r="L177" s="4">
         <v>2</v>
       </c>
-      <c r="M177" s="5">
-        <v>1.2969999999999999</v>
+      <c r="M177" s="7">
+        <v>1297</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
@@ -8037,8 +8049,8 @@
       <c r="L178" s="4">
         <v>1</v>
       </c>
-      <c r="M178" s="5">
-        <v>1.1950000000000001</v>
+      <c r="M178" s="7">
+        <v>1195</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
@@ -8076,8 +8088,8 @@
       <c r="L179" s="4">
         <v>3</v>
       </c>
-      <c r="M179" s="5">
-        <v>1.272</v>
+      <c r="M179" s="7">
+        <v>1272</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
@@ -8117,8 +8129,8 @@
       <c r="L180" s="4">
         <v>2</v>
       </c>
-      <c r="M180" s="5">
-        <v>1.012</v>
+      <c r="M180" s="7">
+        <v>1012</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
@@ -8156,8 +8168,8 @@
       <c r="L181" s="4">
         <v>2</v>
       </c>
-      <c r="M181" s="5">
-        <v>1.0980000000000001</v>
+      <c r="M181" s="7">
+        <v>1098</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
@@ -8316,8 +8328,8 @@
       <c r="L185" s="4">
         <v>2</v>
       </c>
-      <c r="M185" s="5">
-        <v>1.3320000000000001</v>
+      <c r="M185" s="7">
+        <v>1332</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
@@ -8328,23 +8340,23 @@
       <c r="C186" s="5">
         <v>617</v>
       </c>
-      <c r="D186" s="5">
-        <v>1.206</v>
-      </c>
-      <c r="E186" s="5">
-        <v>11.323</v>
-      </c>
-      <c r="F186" s="5">
-        <v>3.0529999999999999</v>
-      </c>
-      <c r="G186" s="5">
-        <v>3.7829999999999999</v>
-      </c>
-      <c r="H186" s="5">
-        <v>6.4029999999999996</v>
-      </c>
-      <c r="I186" s="5">
-        <v>3.9929999999999999</v>
+      <c r="D186" s="7">
+        <v>1206</v>
+      </c>
+      <c r="E186" s="7">
+        <v>11323</v>
+      </c>
+      <c r="F186" s="7">
+        <v>3053</v>
+      </c>
+      <c r="G186" s="7">
+        <v>3783</v>
+      </c>
+      <c r="H186" s="7">
+        <v>6403</v>
+      </c>
+      <c r="I186" s="7">
+        <v>3993</v>
       </c>
       <c r="J186" s="5">
         <v>219</v>
@@ -8355,8 +8367,8 @@
       <c r="L186" s="5">
         <v>80</v>
       </c>
-      <c r="M186" s="5">
-        <v>30.693000000000001</v>
+      <c r="M186" s="7">
+        <v>30693</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -9369,20 +9381,20 @@
       <c r="D212" s="5">
         <v>722</v>
       </c>
-      <c r="E212" s="5">
-        <v>4.3109999999999999</v>
+      <c r="E212" s="7">
+        <v>4311</v>
       </c>
       <c r="F212" s="5">
         <v>771</v>
       </c>
-      <c r="G212" s="5">
-        <v>1.2230000000000001</v>
-      </c>
-      <c r="H212" s="5">
-        <v>2.0150000000000001</v>
-      </c>
-      <c r="I212" s="5">
-        <v>1.1140000000000001</v>
+      <c r="G212" s="7">
+        <v>1223</v>
+      </c>
+      <c r="H212" s="7">
+        <v>2015</v>
+      </c>
+      <c r="I212" s="7">
+        <v>1114</v>
       </c>
       <c r="J212" s="5">
         <v>118</v>
@@ -9393,8 +9405,8 @@
       <c r="L212" s="5">
         <v>26</v>
       </c>
-      <c r="M212" s="5">
-        <v>10.581</v>
+      <c r="M212" s="7">
+        <v>10581</v>
       </c>
     </row>
     <row r="213" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -9458,8 +9470,8 @@
       <c r="G214" s="4">
         <v>575</v>
       </c>
-      <c r="H214" s="4">
-        <v>1.262</v>
+      <c r="H214" s="9">
+        <v>1262</v>
       </c>
       <c r="I214" s="4">
         <v>218</v>
@@ -9473,8 +9485,8 @@
       <c r="L214" s="4">
         <v>23</v>
       </c>
-      <c r="M214" s="5">
-        <v>2.093</v>
+      <c r="M214" s="7">
+        <v>2093</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
@@ -9497,8 +9509,8 @@
       <c r="G215" s="4">
         <v>381</v>
       </c>
-      <c r="H215" s="4">
-        <v>1.292</v>
+      <c r="H215" s="9">
+        <v>1292</v>
       </c>
       <c r="I215" s="4">
         <v>426</v>
@@ -9512,8 +9524,8 @@
       <c r="L215" s="4">
         <v>2</v>
       </c>
-      <c r="M215" s="5">
-        <v>2.1190000000000002</v>
+      <c r="M215" s="7">
+        <v>2119</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
@@ -9553,8 +9565,8 @@
       <c r="L216" s="4">
         <v>4</v>
       </c>
-      <c r="M216" s="5">
-        <v>1.3540000000000001</v>
+      <c r="M216" s="7">
+        <v>1354</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
@@ -9592,8 +9604,8 @@
       <c r="L217" s="4">
         <v>2</v>
       </c>
-      <c r="M217" s="5">
-        <v>1.252</v>
+      <c r="M217" s="7">
+        <v>1252</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
@@ -9633,8 +9645,8 @@
       <c r="L218" s="4">
         <v>3</v>
       </c>
-      <c r="M218" s="5">
-        <v>1.1359999999999999</v>
+      <c r="M218" s="7">
+        <v>1136</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
@@ -9672,8 +9684,8 @@
       <c r="L219" s="4">
         <v>5</v>
       </c>
-      <c r="M219" s="5">
-        <v>1.171</v>
+      <c r="M219" s="7">
+        <v>1171</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.25">
@@ -9713,8 +9725,8 @@
       <c r="L220" s="4">
         <v>5</v>
       </c>
-      <c r="M220" s="5">
-        <v>1.4810000000000001</v>
+      <c r="M220" s="7">
+        <v>1481</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
@@ -9752,8 +9764,8 @@
       <c r="L221" s="4">
         <v>6</v>
       </c>
-      <c r="M221" s="5">
-        <v>1.425</v>
+      <c r="M221" s="7">
+        <v>1425</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
@@ -9793,8 +9805,8 @@
       <c r="L222" s="4">
         <v>7</v>
       </c>
-      <c r="M222" s="5">
-        <v>1.601</v>
+      <c r="M222" s="7">
+        <v>1601</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
@@ -9832,8 +9844,8 @@
       <c r="L223" s="4">
         <v>1</v>
       </c>
-      <c r="M223" s="5">
-        <v>1.58</v>
+      <c r="M223" s="7">
+        <v>1580</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
@@ -9873,8 +9885,8 @@
       <c r="L224" s="4">
         <v>5</v>
       </c>
-      <c r="M224" s="5">
-        <v>1.597</v>
+      <c r="M224" s="7">
+        <v>1597</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
@@ -9912,8 +9924,8 @@
       <c r="L225" s="4">
         <v>6</v>
       </c>
-      <c r="M225" s="5">
-        <v>1.56</v>
+      <c r="M225" s="7">
+        <v>1560</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.25">
@@ -9953,8 +9965,8 @@
       <c r="L226" s="4">
         <v>5</v>
       </c>
-      <c r="M226" s="5">
-        <v>1.6970000000000001</v>
+      <c r="M226" s="7">
+        <v>1697</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.25">
@@ -9968,8 +9980,8 @@
       <c r="D227" s="4">
         <v>26</v>
       </c>
-      <c r="E227" s="4">
-        <v>1.0209999999999999</v>
+      <c r="E227" s="9">
+        <v>1021</v>
       </c>
       <c r="F227" s="4">
         <v>320</v>
@@ -9992,8 +10004,8 @@
       <c r="L227" s="4">
         <v>1</v>
       </c>
-      <c r="M227" s="5">
-        <v>1.7350000000000001</v>
+      <c r="M227" s="7">
+        <v>1735</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.25">
@@ -10033,8 +10045,8 @@
       <c r="L228" s="4">
         <v>2</v>
       </c>
-      <c r="M228" s="5">
-        <v>1.609</v>
+      <c r="M228" s="7">
+        <v>1609</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.25">
@@ -10048,8 +10060,8 @@
       <c r="D229" s="4">
         <v>96</v>
       </c>
-      <c r="E229" s="4">
-        <v>1.117</v>
+      <c r="E229" s="9">
+        <v>1117</v>
       </c>
       <c r="F229" s="4">
         <v>200</v>
@@ -10072,8 +10084,8 @@
       <c r="L229" s="4">
         <v>10</v>
       </c>
-      <c r="M229" s="5">
-        <v>1.681</v>
+      <c r="M229" s="7">
+        <v>1681</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.25">
@@ -10113,8 +10125,8 @@
       <c r="L230" s="4">
         <v>5</v>
       </c>
-      <c r="M230" s="5">
-        <v>1.4530000000000001</v>
+      <c r="M230" s="7">
+        <v>1453</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.25">
@@ -10128,8 +10140,8 @@
       <c r="D231" s="4">
         <v>145</v>
       </c>
-      <c r="E231" s="4">
-        <v>1.1599999999999999</v>
+      <c r="E231" s="9">
+        <v>1160</v>
       </c>
       <c r="F231" s="4">
         <v>96</v>
@@ -10152,8 +10164,8 @@
       <c r="L231" s="4">
         <v>5</v>
       </c>
-      <c r="M231" s="5">
-        <v>1.5760000000000001</v>
+      <c r="M231" s="7">
+        <v>1576</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.25">
@@ -10193,8 +10205,8 @@
       <c r="L232" s="4">
         <v>1</v>
       </c>
-      <c r="M232" s="5">
-        <v>1.1359999999999999</v>
+      <c r="M232" s="7">
+        <v>1136</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.25">
@@ -10232,8 +10244,8 @@
       <c r="L233" s="4">
         <v>2</v>
       </c>
-      <c r="M233" s="5">
-        <v>1.2250000000000001</v>
+      <c r="M233" s="7">
+        <v>1225</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.25">
@@ -10392,8 +10404,8 @@
       <c r="L237" s="4">
         <v>3</v>
       </c>
-      <c r="M237" s="5">
-        <v>1.468</v>
+      <c r="M237" s="7">
+        <v>1468</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.25">
@@ -10404,23 +10416,23 @@
       <c r="C238" s="5">
         <v>718</v>
       </c>
-      <c r="D238" s="5">
-        <v>1.8009999999999999</v>
-      </c>
-      <c r="E238" s="5">
-        <v>12.813000000000001</v>
-      </c>
-      <c r="F238" s="5">
-        <v>3.8180000000000001</v>
-      </c>
-      <c r="G238" s="5">
-        <v>4.1440000000000001</v>
-      </c>
-      <c r="H238" s="5">
-        <v>6.8540000000000001</v>
-      </c>
-      <c r="I238" s="5">
-        <v>4.0919999999999996</v>
+      <c r="D238" s="7">
+        <v>1801</v>
+      </c>
+      <c r="E238" s="7">
+        <v>12813</v>
+      </c>
+      <c r="F238" s="7">
+        <v>3818</v>
+      </c>
+      <c r="G238" s="7">
+        <v>4144</v>
+      </c>
+      <c r="H238" s="7">
+        <v>6854</v>
+      </c>
+      <c r="I238" s="7">
+        <v>4092</v>
       </c>
       <c r="J238" s="5">
         <v>359</v>
@@ -10431,8 +10443,8 @@
       <c r="L238" s="5">
         <v>116</v>
       </c>
-      <c r="M238" s="5">
-        <v>34.756</v>
+      <c r="M238" s="7">
+        <v>34756</v>
       </c>
     </row>
     <row r="239" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -10493,11 +10505,11 @@
       <c r="F240" s="4">
         <v>2</v>
       </c>
-      <c r="G240" s="4">
-        <v>2.044</v>
-      </c>
-      <c r="H240" s="4">
-        <v>4.3529999999999998</v>
+      <c r="G240" s="9">
+        <v>2044</v>
+      </c>
+      <c r="H240" s="9">
+        <v>4353</v>
       </c>
       <c r="I240" s="4">
         <v>834</v>
@@ -10511,8 +10523,8 @@
       <c r="L240" s="4">
         <v>47</v>
       </c>
-      <c r="M240" s="5">
-        <v>7.3259999999999996</v>
+      <c r="M240" s="7">
+        <v>7326</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.25">
@@ -10532,14 +10544,14 @@
       <c r="F241" s="4">
         <v>2</v>
       </c>
-      <c r="G241" s="4">
-        <v>1.6639999999999999</v>
-      </c>
-      <c r="H241" s="4">
-        <v>4.2610000000000001</v>
-      </c>
-      <c r="I241" s="4">
-        <v>1.3049999999999999</v>
+      <c r="G241" s="9">
+        <v>1664</v>
+      </c>
+      <c r="H241" s="9">
+        <v>4261</v>
+      </c>
+      <c r="I241" s="9">
+        <v>1305</v>
       </c>
       <c r="J241" s="4">
         <v>8</v>
@@ -10550,8 +10562,8 @@
       <c r="L241" s="4">
         <v>13</v>
       </c>
-      <c r="M241" s="5">
-        <v>7.3330000000000002</v>
+      <c r="M241" s="7">
+        <v>7333</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.25">
@@ -10573,14 +10585,14 @@
       <c r="F242" s="4">
         <v>42</v>
       </c>
-      <c r="G242" s="4">
-        <v>1.502</v>
-      </c>
-      <c r="H242" s="4">
-        <v>1.75</v>
-      </c>
-      <c r="I242" s="4">
-        <v>1.8620000000000001</v>
+      <c r="G242" s="9">
+        <v>1502</v>
+      </c>
+      <c r="H242" s="9">
+        <v>1750</v>
+      </c>
+      <c r="I242" s="9">
+        <v>1862</v>
       </c>
       <c r="J242" s="4">
         <v>117</v>
@@ -10591,8 +10603,8 @@
       <c r="L242" s="4">
         <v>32</v>
       </c>
-      <c r="M242" s="5">
-        <v>5.3470000000000004</v>
+      <c r="M242" s="7">
+        <v>5347</v>
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.25">
@@ -10612,14 +10624,14 @@
       <c r="F243" s="4">
         <v>81</v>
       </c>
-      <c r="G243" s="4">
-        <v>1.2929999999999999</v>
-      </c>
-      <c r="H243" s="4">
-        <v>1.31</v>
-      </c>
-      <c r="I243" s="4">
-        <v>2.2000000000000002</v>
+      <c r="G243" s="9">
+        <v>1293</v>
+      </c>
+      <c r="H243" s="9">
+        <v>1310</v>
+      </c>
+      <c r="I243" s="9">
+        <v>2200</v>
       </c>
       <c r="J243" s="4">
         <v>149</v>
@@ -10630,8 +10642,8 @@
       <c r="L243" s="4">
         <v>14</v>
       </c>
-      <c r="M243" s="5">
-        <v>5.25</v>
+      <c r="M243" s="7">
+        <v>5250</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.25">
@@ -10650,17 +10662,17 @@
       <c r="E244" s="4">
         <v>37</v>
       </c>
-      <c r="F244" s="4">
-        <v>1.042</v>
+      <c r="F244" s="9">
+        <v>1042</v>
       </c>
       <c r="G244" s="4">
         <v>577</v>
       </c>
-      <c r="H244" s="4">
-        <v>1.6479999999999999</v>
-      </c>
-      <c r="I244" s="4">
-        <v>1.5669999999999999</v>
+      <c r="H244" s="9">
+        <v>1648</v>
+      </c>
+      <c r="I244" s="9">
+        <v>1567</v>
       </c>
       <c r="J244" s="4">
         <v>181</v>
@@ -10671,8 +10683,8 @@
       <c r="L244" s="4">
         <v>18</v>
       </c>
-      <c r="M244" s="5">
-        <v>5.1369999999999996</v>
+      <c r="M244" s="7">
+        <v>5137</v>
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.25">
@@ -10689,17 +10701,17 @@
       <c r="E245" s="4">
         <v>84</v>
       </c>
-      <c r="F245" s="4">
-        <v>1.101</v>
+      <c r="F245" s="9">
+        <v>1101</v>
       </c>
       <c r="G245" s="4">
         <v>461</v>
       </c>
-      <c r="H245" s="4">
-        <v>1.3080000000000001</v>
-      </c>
-      <c r="I245" s="4">
-        <v>1.6990000000000001</v>
+      <c r="H245" s="9">
+        <v>1308</v>
+      </c>
+      <c r="I245" s="9">
+        <v>1699</v>
       </c>
       <c r="J245" s="4">
         <v>146</v>
@@ -10710,8 +10722,8 @@
       <c r="L245" s="4">
         <v>14</v>
       </c>
-      <c r="M245" s="5">
-        <v>5.0190000000000001</v>
+      <c r="M245" s="7">
+        <v>5019</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.25">
@@ -10730,17 +10742,17 @@
       <c r="E246" s="4">
         <v>526</v>
       </c>
-      <c r="F246" s="4">
-        <v>1.0720000000000001</v>
+      <c r="F246" s="9">
+        <v>1072</v>
       </c>
       <c r="G246" s="4">
         <v>554</v>
       </c>
-      <c r="H246" s="4">
-        <v>1.631</v>
-      </c>
-      <c r="I246" s="4">
-        <v>1.4239999999999999</v>
+      <c r="H246" s="9">
+        <v>1631</v>
+      </c>
+      <c r="I246" s="9">
+        <v>1424</v>
       </c>
       <c r="J246" s="4">
         <v>203</v>
@@ -10751,8 +10763,8 @@
       <c r="L246" s="4">
         <v>21</v>
       </c>
-      <c r="M246" s="5">
-        <v>5.508</v>
+      <c r="M246" s="7">
+        <v>5508</v>
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.25">
@@ -10766,8 +10778,8 @@
       <c r="D247" s="4">
         <v>128</v>
       </c>
-      <c r="E247" s="4">
-        <v>1.054</v>
+      <c r="E247" s="9">
+        <v>1054</v>
       </c>
       <c r="F247" s="4">
         <v>861</v>
@@ -10775,11 +10787,11 @@
       <c r="G247" s="4">
         <v>533</v>
       </c>
-      <c r="H247" s="4">
-        <v>1.421</v>
-      </c>
-      <c r="I247" s="4">
-        <v>1.2829999999999999</v>
+      <c r="H247" s="9">
+        <v>1421</v>
+      </c>
+      <c r="I247" s="9">
+        <v>1283</v>
       </c>
       <c r="J247" s="4">
         <v>165</v>
@@ -10790,8 +10802,8 @@
       <c r="L247" s="4">
         <v>27</v>
       </c>
-      <c r="M247" s="5">
-        <v>5.5350000000000001</v>
+      <c r="M247" s="7">
+        <v>5535</v>
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.25">
@@ -10807,8 +10819,8 @@
       <c r="D248" s="4">
         <v>30</v>
       </c>
-      <c r="E248" s="4">
-        <v>1.2130000000000001</v>
+      <c r="E248" s="9">
+        <v>1213</v>
       </c>
       <c r="F248" s="4">
         <v>859</v>
@@ -10816,11 +10828,11 @@
       <c r="G248" s="4">
         <v>888</v>
       </c>
-      <c r="H248" s="4">
-        <v>1.5249999999999999</v>
-      </c>
-      <c r="I248" s="4">
-        <v>1.1020000000000001</v>
+      <c r="H248" s="9">
+        <v>1525</v>
+      </c>
+      <c r="I248" s="9">
+        <v>1102</v>
       </c>
       <c r="J248" s="4">
         <v>185</v>
@@ -10831,8 +10843,8 @@
       <c r="L248" s="4">
         <v>24</v>
       </c>
-      <c r="M248" s="5">
-        <v>5.851</v>
+      <c r="M248" s="7">
+        <v>5851</v>
       </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.25">
@@ -10846,8 +10858,8 @@
       <c r="D249" s="4">
         <v>141</v>
       </c>
-      <c r="E249" s="4">
-        <v>1.8879999999999999</v>
+      <c r="E249" s="9">
+        <v>1888</v>
       </c>
       <c r="F249" s="4">
         <v>596</v>
@@ -10855,11 +10867,11 @@
       <c r="G249" s="4">
         <v>867</v>
       </c>
-      <c r="H249" s="4">
-        <v>1.2549999999999999</v>
-      </c>
-      <c r="I249" s="4">
-        <v>1.0649999999999999</v>
+      <c r="H249" s="9">
+        <v>1255</v>
+      </c>
+      <c r="I249" s="9">
+        <v>1065</v>
       </c>
       <c r="J249" s="4">
         <v>151</v>
@@ -10870,8 +10882,8 @@
       <c r="L249" s="4">
         <v>19</v>
       </c>
-      <c r="M249" s="5">
-        <v>6.0609999999999999</v>
+      <c r="M249" s="7">
+        <v>6061</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.25">
@@ -10887,8 +10899,8 @@
       <c r="D250" s="4">
         <v>24</v>
       </c>
-      <c r="E250" s="4">
-        <v>1.5569999999999999</v>
+      <c r="E250" s="9">
+        <v>1557</v>
       </c>
       <c r="F250" s="4">
         <v>959</v>
@@ -10896,8 +10908,8 @@
       <c r="G250" s="4">
         <v>830</v>
       </c>
-      <c r="H250" s="4">
-        <v>1.2390000000000001</v>
+      <c r="H250" s="9">
+        <v>1239</v>
       </c>
       <c r="I250" s="4">
         <v>934</v>
@@ -10911,8 +10923,8 @@
       <c r="L250" s="4">
         <v>29</v>
       </c>
-      <c r="M250" s="5">
-        <v>5.7220000000000004</v>
+      <c r="M250" s="7">
+        <v>5722</v>
       </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.25">
@@ -10926,8 +10938,8 @@
       <c r="D251" s="4">
         <v>137</v>
       </c>
-      <c r="E251" s="4">
-        <v>2.2890000000000001</v>
+      <c r="E251" s="9">
+        <v>2289</v>
       </c>
       <c r="F251" s="4">
         <v>773</v>
@@ -10935,8 +10947,8 @@
       <c r="G251" s="4">
         <v>834</v>
       </c>
-      <c r="H251" s="4">
-        <v>1.028</v>
+      <c r="H251" s="9">
+        <v>1028</v>
       </c>
       <c r="I251" s="4">
         <v>702</v>
@@ -10950,8 +10962,8 @@
       <c r="L251" s="4">
         <v>14</v>
       </c>
-      <c r="M251" s="5">
-        <v>5.9169999999999998</v>
+      <c r="M251" s="7">
+        <v>5917</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.25">
@@ -10967,11 +10979,11 @@
       <c r="D252" s="4">
         <v>26</v>
       </c>
-      <c r="E252" s="4">
-        <v>1.84</v>
-      </c>
-      <c r="F252" s="4">
-        <v>1.034</v>
+      <c r="E252" s="9">
+        <v>1840</v>
+      </c>
+      <c r="F252" s="9">
+        <v>1034</v>
       </c>
       <c r="G252" s="4">
         <v>956</v>
@@ -10991,8 +11003,8 @@
       <c r="L252" s="4">
         <v>35</v>
       </c>
-      <c r="M252" s="5">
-        <v>5.7649999999999997</v>
+      <c r="M252" s="7">
+        <v>5765</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.25">
@@ -11006,8 +11018,8 @@
       <c r="D253" s="4">
         <v>148</v>
       </c>
-      <c r="E253" s="4">
-        <v>2.762</v>
+      <c r="E253" s="9">
+        <v>2762</v>
       </c>
       <c r="F253" s="4">
         <v>728</v>
@@ -11030,8 +11042,8 @@
       <c r="L253" s="4">
         <v>37</v>
       </c>
-      <c r="M253" s="5">
-        <v>6.04</v>
+      <c r="M253" s="7">
+        <v>6040</v>
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.25">
@@ -11047,8 +11059,8 @@
       <c r="D254" s="4">
         <v>54</v>
       </c>
-      <c r="E254" s="4">
-        <v>2.202</v>
+      <c r="E254" s="9">
+        <v>2202</v>
       </c>
       <c r="F254" s="4">
         <v>845</v>
@@ -11071,8 +11083,8 @@
       <c r="L254" s="4">
         <v>36</v>
       </c>
-      <c r="M254" s="5">
-        <v>5.7130000000000001</v>
+      <c r="M254" s="7">
+        <v>5713</v>
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.25">
@@ -11086,8 +11098,8 @@
       <c r="D255" s="4">
         <v>206</v>
       </c>
-      <c r="E255" s="4">
-        <v>3.3450000000000002</v>
+      <c r="E255" s="9">
+        <v>3345</v>
       </c>
       <c r="F255" s="4">
         <v>477</v>
@@ -11110,8 +11122,8 @@
       <c r="L255" s="4">
         <v>37</v>
       </c>
-      <c r="M255" s="5">
-        <v>5.8479999999999999</v>
+      <c r="M255" s="7">
+        <v>5848</v>
       </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.25">
@@ -11127,8 +11139,8 @@
       <c r="D256" s="4">
         <v>63</v>
       </c>
-      <c r="E256" s="4">
-        <v>2.6219999999999999</v>
+      <c r="E256" s="9">
+        <v>2622</v>
       </c>
       <c r="F256" s="4">
         <v>452</v>
@@ -11151,8 +11163,8 @@
       <c r="L256" s="4">
         <v>37</v>
       </c>
-      <c r="M256" s="5">
-        <v>5.1840000000000002</v>
+      <c r="M256" s="7">
+        <v>5184</v>
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.25">
@@ -11166,8 +11178,8 @@
       <c r="D257" s="4">
         <v>322</v>
       </c>
-      <c r="E257" s="4">
-        <v>3.51</v>
+      <c r="E257" s="9">
+        <v>3510</v>
       </c>
       <c r="F257" s="4">
         <v>256</v>
@@ -11190,8 +11202,8 @@
       <c r="L257" s="4">
         <v>29</v>
       </c>
-      <c r="M257" s="5">
-        <v>5.4290000000000003</v>
+      <c r="M257" s="7">
+        <v>5429</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.25">
@@ -11207,8 +11219,8 @@
       <c r="D258" s="4">
         <v>121</v>
       </c>
-      <c r="E258" s="4">
-        <v>2.5680000000000001</v>
+      <c r="E258" s="9">
+        <v>2568</v>
       </c>
       <c r="F258" s="4">
         <v>235</v>
@@ -11231,8 +11243,8 @@
       <c r="L258" s="4">
         <v>45</v>
       </c>
-      <c r="M258" s="5">
-        <v>4.4509999999999996</v>
+      <c r="M258" s="7">
+        <v>4451</v>
       </c>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.25">
@@ -11246,8 +11258,8 @@
       <c r="D259" s="4">
         <v>506</v>
       </c>
-      <c r="E259" s="4">
-        <v>3.0680000000000001</v>
+      <c r="E259" s="9">
+        <v>3068</v>
       </c>
       <c r="F259" s="4">
         <v>87</v>
@@ -11270,8 +11282,8 @@
       <c r="L259" s="4">
         <v>25</v>
       </c>
-      <c r="M259" s="5">
-        <v>4.6970000000000001</v>
+      <c r="M259" s="7">
+        <v>4697</v>
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.25">
@@ -11287,8 +11299,8 @@
       <c r="D260" s="4">
         <v>140</v>
       </c>
-      <c r="E260" s="4">
-        <v>1.988</v>
+      <c r="E260" s="9">
+        <v>1988</v>
       </c>
       <c r="F260" s="4">
         <v>67</v>
@@ -11311,8 +11323,8 @@
       <c r="L260" s="4">
         <v>27</v>
       </c>
-      <c r="M260" s="5">
-        <v>2.923</v>
+      <c r="M260" s="7">
+        <v>2923</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.25">
@@ -11326,8 +11338,8 @@
       <c r="D261" s="4">
         <v>590</v>
       </c>
-      <c r="E261" s="4">
-        <v>2.238</v>
+      <c r="E261" s="9">
+        <v>2238</v>
       </c>
       <c r="F261" s="4">
         <v>42</v>
@@ -11350,8 +11362,8 @@
       <c r="L261" s="4">
         <v>26</v>
       </c>
-      <c r="M261" s="5">
-        <v>3.625</v>
+      <c r="M261" s="7">
+        <v>3625</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.25">
@@ -11367,8 +11379,8 @@
       <c r="D262" s="4">
         <v>432</v>
       </c>
-      <c r="E262" s="4">
-        <v>2.1930000000000001</v>
+      <c r="E262" s="9">
+        <v>2193</v>
       </c>
       <c r="F262" s="4">
         <v>38</v>
@@ -11391,8 +11403,8 @@
       <c r="L262" s="4">
         <v>35</v>
       </c>
-      <c r="M262" s="5">
-        <v>3.34</v>
+      <c r="M262" s="7">
+        <v>3340</v>
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.25">
@@ -11400,14 +11412,14 @@
       <c r="B263" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C263" s="4">
-        <v>1.0920000000000001</v>
-      </c>
-      <c r="D263" s="4">
-        <v>1.2430000000000001</v>
-      </c>
-      <c r="E263" s="4">
-        <v>2.2989999999999999</v>
+      <c r="C263" s="9">
+        <v>1092</v>
+      </c>
+      <c r="D263" s="9">
+        <v>1243</v>
+      </c>
+      <c r="E263" s="9">
+        <v>2299</v>
       </c>
       <c r="F263" s="4">
         <v>10</v>
@@ -11430,8 +11442,8 @@
       <c r="L263" s="4">
         <v>27</v>
       </c>
-      <c r="M263" s="5">
-        <v>4.8689999999999998</v>
+      <c r="M263" s="7">
+        <v>4869</v>
       </c>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.25">
@@ -11439,29 +11451,29 @@
         <v>12</v>
       </c>
       <c r="B264" s="6"/>
-      <c r="C264" s="5">
-        <v>2.62</v>
-      </c>
-      <c r="D264" s="5">
-        <v>4.7389999999999999</v>
-      </c>
-      <c r="E264" s="5">
-        <v>39.475000000000001</v>
-      </c>
-      <c r="F264" s="5">
-        <v>11.661</v>
-      </c>
-      <c r="G264" s="5">
-        <v>17.158999999999999</v>
-      </c>
-      <c r="H264" s="5">
-        <v>28.760999999999999</v>
-      </c>
-      <c r="I264" s="5">
-        <v>20.762</v>
-      </c>
-      <c r="J264" s="5">
-        <v>1.879</v>
+      <c r="C264" s="7">
+        <v>2620</v>
+      </c>
+      <c r="D264" s="7">
+        <v>4739</v>
+      </c>
+      <c r="E264" s="7">
+        <v>39475</v>
+      </c>
+      <c r="F264" s="7">
+        <v>11661</v>
+      </c>
+      <c r="G264" s="7">
+        <v>17159</v>
+      </c>
+      <c r="H264" s="7">
+        <v>28761</v>
+      </c>
+      <c r="I264" s="7">
+        <v>20762</v>
+      </c>
+      <c r="J264" s="7">
+        <v>1879</v>
       </c>
       <c r="K264" s="5">
         <v>166</v>
@@ -11469,8 +11481,8 @@
       <c r="L264" s="5">
         <v>668</v>
       </c>
-      <c r="M264" s="5">
-        <v>127.89</v>
+      <c r="M264" s="7">
+        <v>127890</v>
       </c>
     </row>
     <row r="265" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -11549,8 +11561,8 @@
       <c r="L266" s="4">
         <v>12</v>
       </c>
-      <c r="M266" s="5">
-        <v>1.4830000000000001</v>
+      <c r="M266" s="7">
+        <v>1483</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.25">
@@ -11588,8 +11600,8 @@
       <c r="L267" s="4">
         <v>1</v>
       </c>
-      <c r="M267" s="5">
-        <v>1.3839999999999999</v>
+      <c r="M267" s="7">
+        <v>1384</v>
       </c>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.25">
@@ -11629,8 +11641,8 @@
       <c r="L268" s="4">
         <v>3</v>
       </c>
-      <c r="M268" s="5">
-        <v>1.0249999999999999</v>
+      <c r="M268" s="7">
+        <v>1025</v>
       </c>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.25">
@@ -11789,8 +11801,8 @@
       <c r="L272" s="4">
         <v>3</v>
       </c>
-      <c r="M272" s="5">
-        <v>1.177</v>
+      <c r="M272" s="7">
+        <v>1177</v>
       </c>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.25">
@@ -11828,8 +11840,8 @@
       <c r="L273" s="4">
         <v>4</v>
       </c>
-      <c r="M273" s="5">
-        <v>1.181</v>
+      <c r="M273" s="7">
+        <v>1181</v>
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.25">
@@ -11869,8 +11881,8 @@
       <c r="L274" s="4">
         <v>2</v>
       </c>
-      <c r="M274" s="5">
-        <v>1.3320000000000001</v>
+      <c r="M274" s="7">
+        <v>1332</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.25">
@@ -11908,8 +11920,8 @@
       <c r="L275" s="4">
         <v>1</v>
       </c>
-      <c r="M275" s="5">
-        <v>1.3029999999999999</v>
+      <c r="M275" s="7">
+        <v>1303</v>
       </c>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.25">
@@ -11949,8 +11961,8 @@
       <c r="L276" s="4">
         <v>3</v>
       </c>
-      <c r="M276" s="5">
-        <v>1.2709999999999999</v>
+      <c r="M276" s="7">
+        <v>1271</v>
       </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.25">
@@ -11988,8 +12000,8 @@
       <c r="L277" s="4">
         <v>4</v>
       </c>
-      <c r="M277" s="5">
-        <v>1.234</v>
+      <c r="M277" s="7">
+        <v>1234</v>
       </c>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.25">
@@ -12029,8 +12041,8 @@
       <c r="L278" s="4">
         <v>9</v>
       </c>
-      <c r="M278" s="5">
-        <v>1.302</v>
+      <c r="M278" s="7">
+        <v>1302</v>
       </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.25">
@@ -12068,8 +12080,8 @@
       <c r="L279" s="4">
         <v>5</v>
       </c>
-      <c r="M279" s="5">
-        <v>1.2609999999999999</v>
+      <c r="M279" s="7">
+        <v>1261</v>
       </c>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.25">
@@ -12109,8 +12121,8 @@
       <c r="L280" s="4">
         <v>9</v>
       </c>
-      <c r="M280" s="5">
-        <v>1.3919999999999999</v>
+      <c r="M280" s="7">
+        <v>1392</v>
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.25">
@@ -12148,8 +12160,8 @@
       <c r="L281" s="4">
         <v>4</v>
       </c>
-      <c r="M281" s="5">
-        <v>1.3140000000000001</v>
+      <c r="M281" s="7">
+        <v>1314</v>
       </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.25">
@@ -12189,8 +12201,8 @@
       <c r="L282" s="4">
         <v>6</v>
       </c>
-      <c r="M282" s="5">
-        <v>1.262</v>
+      <c r="M282" s="7">
+        <v>1262</v>
       </c>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.25">
@@ -12204,8 +12216,8 @@
       <c r="D283" s="4">
         <v>94</v>
       </c>
-      <c r="E283" s="4">
-        <v>1.0840000000000001</v>
+      <c r="E283" s="9">
+        <v>1084</v>
       </c>
       <c r="F283" s="4">
         <v>45</v>
@@ -12228,8 +12240,8 @@
       <c r="L283" s="4">
         <v>2</v>
       </c>
-      <c r="M283" s="5">
-        <v>1.375</v>
+      <c r="M283" s="7">
+        <v>1375</v>
       </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.25">
@@ -12269,8 +12281,8 @@
       <c r="L284" s="4">
         <v>6</v>
       </c>
-      <c r="M284" s="5">
-        <v>1.0740000000000001</v>
+      <c r="M284" s="7">
+        <v>1074</v>
       </c>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.25">
@@ -12308,8 +12320,8 @@
       <c r="L285" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M285" s="5">
-        <v>1.161</v>
+      <c r="M285" s="7">
+        <v>1161</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.25">
@@ -12468,8 +12480,8 @@
       <c r="L289" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M289" s="5">
-        <v>1.2989999999999999</v>
+      <c r="M289" s="7">
+        <v>1299</v>
       </c>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.25">
@@ -12480,23 +12492,23 @@
       <c r="C290" s="5">
         <v>195</v>
       </c>
-      <c r="D290" s="5">
-        <v>1.5740000000000001</v>
-      </c>
-      <c r="E290" s="5">
-        <v>11.271000000000001</v>
-      </c>
-      <c r="F290" s="5">
-        <v>2.69</v>
-      </c>
-      <c r="G290" s="5">
-        <v>3.8140000000000001</v>
-      </c>
-      <c r="H290" s="5">
-        <v>5.4269999999999996</v>
-      </c>
-      <c r="I290" s="5">
-        <v>2.9420000000000002</v>
+      <c r="D290" s="7">
+        <v>1574</v>
+      </c>
+      <c r="E290" s="7">
+        <v>11271</v>
+      </c>
+      <c r="F290" s="7">
+        <v>2690</v>
+      </c>
+      <c r="G290" s="7">
+        <v>3814</v>
+      </c>
+      <c r="H290" s="7">
+        <v>5427</v>
+      </c>
+      <c r="I290" s="7">
+        <v>2942</v>
       </c>
       <c r="J290" s="5">
         <v>214</v>
@@ -12507,8 +12519,8 @@
       <c r="L290" s="5">
         <v>88</v>
       </c>
-      <c r="M290" s="5">
-        <v>28.227</v>
+      <c r="M290" s="7">
+        <v>28227</v>
       </c>
     </row>
     <row r="291" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -12572,8 +12584,8 @@
       <c r="G292" s="4">
         <v>922</v>
       </c>
-      <c r="H292" s="4">
-        <v>1.5109999999999999</v>
+      <c r="H292" s="9">
+        <v>1511</v>
       </c>
       <c r="I292" s="4">
         <v>216</v>
@@ -12587,8 +12599,8 @@
       <c r="L292" s="4">
         <v>18</v>
       </c>
-      <c r="M292" s="5">
-        <v>2.6970000000000001</v>
+      <c r="M292" s="7">
+        <v>2697</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.25">
@@ -12611,8 +12623,8 @@
       <c r="G293" s="4">
         <v>677</v>
       </c>
-      <c r="H293" s="4">
-        <v>1.4630000000000001</v>
+      <c r="H293" s="9">
+        <v>1463</v>
       </c>
       <c r="I293" s="4">
         <v>419</v>
@@ -12626,8 +12638,8 @@
       <c r="L293" s="4">
         <v>3</v>
       </c>
-      <c r="M293" s="5">
-        <v>2.5979999999999999</v>
+      <c r="M293" s="7">
+        <v>2598</v>
       </c>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.25">
@@ -12667,8 +12679,8 @@
       <c r="L294" s="4">
         <v>7</v>
       </c>
-      <c r="M294" s="5">
-        <v>1.958</v>
+      <c r="M294" s="7">
+        <v>1958</v>
       </c>
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.25">
@@ -12706,8 +12718,8 @@
       <c r="L295" s="4">
         <v>6</v>
       </c>
-      <c r="M295" s="5">
-        <v>1.8069999999999999</v>
+      <c r="M295" s="7">
+        <v>1807</v>
       </c>
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.25">
@@ -12747,8 +12759,8 @@
       <c r="L296" s="4">
         <v>5</v>
       </c>
-      <c r="M296" s="5">
-        <v>1.885</v>
+      <c r="M296" s="7">
+        <v>1885</v>
       </c>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.25">
@@ -12786,8 +12798,8 @@
       <c r="L297" s="4">
         <v>6</v>
       </c>
-      <c r="M297" s="5">
-        <v>1.609</v>
+      <c r="M297" s="7">
+        <v>1609</v>
       </c>
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.25">
@@ -12827,8 +12839,8 @@
       <c r="L298" s="4">
         <v>5</v>
       </c>
-      <c r="M298" s="5">
-        <v>1.6919999999999999</v>
+      <c r="M298" s="7">
+        <v>1692</v>
       </c>
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.25">
@@ -12866,8 +12878,8 @@
       <c r="L299" s="4">
         <v>8</v>
       </c>
-      <c r="M299" s="5">
-        <v>1.585</v>
+      <c r="M299" s="7">
+        <v>1585</v>
       </c>
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.25">
@@ -12907,8 +12919,8 @@
       <c r="L300" s="4">
         <v>7</v>
       </c>
-      <c r="M300" s="5">
-        <v>1.982</v>
+      <c r="M300" s="7">
+        <v>1982</v>
       </c>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.25">
@@ -12946,8 +12958,8 @@
       <c r="L301" s="4">
         <v>9</v>
       </c>
-      <c r="M301" s="5">
-        <v>1.7909999999999999</v>
+      <c r="M301" s="7">
+        <v>1791</v>
       </c>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.25">
@@ -12987,8 +12999,8 @@
       <c r="L302" s="4">
         <v>2</v>
       </c>
-      <c r="M302" s="5">
-        <v>1.9239999999999999</v>
+      <c r="M302" s="7">
+        <v>1924</v>
       </c>
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.25">
@@ -13026,8 +13038,8 @@
       <c r="L303" s="4">
         <v>5</v>
       </c>
-      <c r="M303" s="5">
-        <v>1.8169999999999999</v>
+      <c r="M303" s="7">
+        <v>1817</v>
       </c>
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.25">
@@ -13067,8 +13079,8 @@
       <c r="L304" s="4">
         <v>7</v>
       </c>
-      <c r="M304" s="5">
-        <v>1.911</v>
+      <c r="M304" s="7">
+        <v>1911</v>
       </c>
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.25">
@@ -13082,8 +13094,8 @@
       <c r="D305" s="4">
         <v>49</v>
       </c>
-      <c r="E305" s="4">
-        <v>1.0780000000000001</v>
+      <c r="E305" s="9">
+        <v>1078</v>
       </c>
       <c r="F305" s="4">
         <v>297</v>
@@ -13106,8 +13118,8 @@
       <c r="L305" s="4">
         <v>3</v>
       </c>
-      <c r="M305" s="5">
-        <v>1.9790000000000001</v>
+      <c r="M305" s="7">
+        <v>1979</v>
       </c>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.25">
@@ -13147,8 +13159,8 @@
       <c r="L306" s="4">
         <v>6</v>
       </c>
-      <c r="M306" s="5">
-        <v>1.97</v>
+      <c r="M306" s="7">
+        <v>1970</v>
       </c>
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.25">
@@ -13162,8 +13174,8 @@
       <c r="D307" s="4">
         <v>77</v>
       </c>
-      <c r="E307" s="4">
-        <v>1.272</v>
+      <c r="E307" s="9">
+        <v>1272</v>
       </c>
       <c r="F307" s="4">
         <v>207</v>
@@ -13186,8 +13198,8 @@
       <c r="L307" s="4">
         <v>5</v>
       </c>
-      <c r="M307" s="5">
-        <v>1.9319999999999999</v>
+      <c r="M307" s="7">
+        <v>1932</v>
       </c>
     </row>
     <row r="308" spans="1:13" x14ac:dyDescent="0.25">
@@ -13203,8 +13215,8 @@
       <c r="D308" s="4">
         <v>26</v>
       </c>
-      <c r="E308" s="4">
-        <v>1.1080000000000001</v>
+      <c r="E308" s="9">
+        <v>1108</v>
       </c>
       <c r="F308" s="4">
         <v>208</v>
@@ -13227,8 +13239,8 @@
       <c r="L308" s="4">
         <v>6</v>
       </c>
-      <c r="M308" s="5">
-        <v>1.883</v>
+      <c r="M308" s="7">
+        <v>1883</v>
       </c>
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.25">
@@ -13242,8 +13254,8 @@
       <c r="D309" s="4">
         <v>104</v>
       </c>
-      <c r="E309" s="4">
-        <v>1.4450000000000001</v>
+      <c r="E309" s="9">
+        <v>1445</v>
       </c>
       <c r="F309" s="4">
         <v>91</v>
@@ -13266,8 +13278,8 @@
       <c r="L309" s="4">
         <v>8</v>
       </c>
-      <c r="M309" s="5">
-        <v>1.9019999999999999</v>
+      <c r="M309" s="7">
+        <v>1902</v>
       </c>
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.25">
@@ -13283,8 +13295,8 @@
       <c r="D310" s="4">
         <v>34</v>
       </c>
-      <c r="E310" s="4">
-        <v>1.1419999999999999</v>
+      <c r="E310" s="9">
+        <v>1142</v>
       </c>
       <c r="F310" s="4">
         <v>80</v>
@@ -13307,8 +13319,8 @@
       <c r="L310" s="4">
         <v>5</v>
       </c>
-      <c r="M310" s="5">
-        <v>1.5580000000000001</v>
+      <c r="M310" s="7">
+        <v>1558</v>
       </c>
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.25">
@@ -13322,8 +13334,8 @@
       <c r="D311" s="4">
         <v>138</v>
       </c>
-      <c r="E311" s="4">
-        <v>1.3340000000000001</v>
+      <c r="E311" s="9">
+        <v>1334</v>
       </c>
       <c r="F311" s="4">
         <v>38</v>
@@ -13346,8 +13358,8 @@
       <c r="L311" s="4">
         <v>6</v>
       </c>
-      <c r="M311" s="5">
-        <v>1.696</v>
+      <c r="M311" s="7">
+        <v>1696</v>
       </c>
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.25">
@@ -13387,8 +13399,8 @@
       <c r="L312" s="4">
         <v>5</v>
       </c>
-      <c r="M312" s="5">
-        <v>1.153</v>
+      <c r="M312" s="7">
+        <v>1153</v>
       </c>
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.25">
@@ -13426,8 +13438,8 @@
       <c r="L313" s="4">
         <v>1</v>
       </c>
-      <c r="M313" s="5">
-        <v>1.333</v>
+      <c r="M313" s="7">
+        <v>1333</v>
       </c>
     </row>
     <row r="314" spans="1:13" x14ac:dyDescent="0.25">
@@ -13443,8 +13455,8 @@
       <c r="D314" s="4">
         <v>171</v>
       </c>
-      <c r="E314" s="4">
-        <v>1.032</v>
+      <c r="E314" s="9">
+        <v>1032</v>
       </c>
       <c r="F314" s="4">
         <v>15</v>
@@ -13467,8 +13479,8 @@
       <c r="L314" s="4">
         <v>6</v>
       </c>
-      <c r="M314" s="5">
-        <v>1.339</v>
+      <c r="M314" s="7">
+        <v>1339</v>
       </c>
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.25">
@@ -13482,8 +13494,8 @@
       <c r="D315" s="4">
         <v>551</v>
       </c>
-      <c r="E315" s="4">
-        <v>1.226</v>
+      <c r="E315" s="9">
+        <v>1226</v>
       </c>
       <c r="F315" s="4">
         <v>4</v>
@@ -13506,8 +13518,8 @@
       <c r="L315" s="4">
         <v>3</v>
       </c>
-      <c r="M315" s="5">
-        <v>2.1760000000000002</v>
+      <c r="M315" s="7">
+        <v>2176</v>
       </c>
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.25">
@@ -13518,23 +13530,23 @@
       <c r="C316" s="5">
         <v>876</v>
       </c>
-      <c r="D316" s="5">
-        <v>1.7809999999999999</v>
-      </c>
-      <c r="E316" s="5">
-        <v>16.234000000000002</v>
-      </c>
-      <c r="F316" s="5">
-        <v>4.8449999999999998</v>
-      </c>
-      <c r="G316" s="5">
-        <v>6.7249999999999996</v>
-      </c>
-      <c r="H316" s="5">
-        <v>8.8330000000000002</v>
-      </c>
-      <c r="I316" s="5">
-        <v>4.4219999999999997</v>
+      <c r="D316" s="7">
+        <v>1781</v>
+      </c>
+      <c r="E316" s="7">
+        <v>16234</v>
+      </c>
+      <c r="F316" s="7">
+        <v>4845</v>
+      </c>
+      <c r="G316" s="7">
+        <v>6725</v>
+      </c>
+      <c r="H316" s="7">
+        <v>8833</v>
+      </c>
+      <c r="I316" s="7">
+        <v>4422</v>
       </c>
       <c r="J316" s="5">
         <v>292</v>
@@ -13545,8 +13557,8 @@
       <c r="L316" s="5">
         <v>142</v>
       </c>
-      <c r="M316" s="5">
-        <v>44.177</v>
+      <c r="M316" s="7">
+        <v>44177</v>
       </c>
     </row>
     <row r="317" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -14556,23 +14568,23 @@
       <c r="C342" s="5">
         <v>385</v>
       </c>
-      <c r="D342" s="5">
-        <v>1.222</v>
-      </c>
-      <c r="E342" s="5">
-        <v>6.0519999999999996</v>
-      </c>
-      <c r="F342" s="5">
-        <v>1.546</v>
-      </c>
-      <c r="G342" s="5">
-        <v>1.716</v>
-      </c>
-      <c r="H342" s="5">
-        <v>2.9449999999999998</v>
-      </c>
-      <c r="I342" s="5">
-        <v>1.4670000000000001</v>
+      <c r="D342" s="7">
+        <v>1222</v>
+      </c>
+      <c r="E342" s="7">
+        <v>6052</v>
+      </c>
+      <c r="F342" s="7">
+        <v>1546</v>
+      </c>
+      <c r="G342" s="7">
+        <v>1716</v>
+      </c>
+      <c r="H342" s="7">
+        <v>2945</v>
+      </c>
+      <c r="I342" s="7">
+        <v>1467</v>
       </c>
       <c r="J342" s="5">
         <v>151</v>
@@ -14583,8 +14595,8 @@
       <c r="L342" s="5">
         <v>39</v>
       </c>
-      <c r="M342" s="5">
-        <v>15.534000000000001</v>
+      <c r="M342" s="7">
+        <v>15534</v>
       </c>
     </row>
     <row r="343" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -14645,11 +14657,11 @@
       <c r="F344" s="4">
         <v>1</v>
       </c>
-      <c r="G344" s="4">
-        <v>1.1579999999999999</v>
-      </c>
-      <c r="H344" s="4">
-        <v>3.2959999999999998</v>
+      <c r="G344" s="9">
+        <v>1158</v>
+      </c>
+      <c r="H344" s="9">
+        <v>3296</v>
       </c>
       <c r="I344" s="4">
         <v>664</v>
@@ -14663,8 +14675,8 @@
       <c r="L344" s="4">
         <v>23</v>
       </c>
-      <c r="M344" s="5">
-        <v>5.1619999999999999</v>
+      <c r="M344" s="7">
+        <v>5162</v>
       </c>
     </row>
     <row r="345" spans="1:13" x14ac:dyDescent="0.25">
@@ -14687,8 +14699,8 @@
       <c r="G345" s="4">
         <v>976</v>
       </c>
-      <c r="H345" s="4">
-        <v>3.0680000000000001</v>
+      <c r="H345" s="9">
+        <v>3068</v>
       </c>
       <c r="I345" s="4">
         <v>992</v>
@@ -14702,8 +14714,8 @@
       <c r="L345" s="4">
         <v>6</v>
       </c>
-      <c r="M345" s="5">
-        <v>5.0659999999999998</v>
+      <c r="M345" s="7">
+        <v>5066</v>
       </c>
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.25">
@@ -14728,11 +14740,11 @@
       <c r="G346" s="4">
         <v>968</v>
       </c>
-      <c r="H346" s="4">
-        <v>1.377</v>
-      </c>
-      <c r="I346" s="4">
-        <v>1.365</v>
+      <c r="H346" s="9">
+        <v>1377</v>
+      </c>
+      <c r="I346" s="9">
+        <v>1365</v>
       </c>
       <c r="J346" s="4">
         <v>54</v>
@@ -14743,8 +14755,8 @@
       <c r="L346" s="4">
         <v>8</v>
       </c>
-      <c r="M346" s="5">
-        <v>3.8069999999999999</v>
+      <c r="M346" s="7">
+        <v>3807</v>
       </c>
     </row>
     <row r="347" spans="1:13" x14ac:dyDescent="0.25">
@@ -14767,11 +14779,11 @@
       <c r="G347" s="4">
         <v>980</v>
       </c>
-      <c r="H347" s="4">
-        <v>1.1459999999999999</v>
-      </c>
-      <c r="I347" s="4">
-        <v>1.6519999999999999</v>
+      <c r="H347" s="9">
+        <v>1146</v>
+      </c>
+      <c r="I347" s="9">
+        <v>1652</v>
       </c>
       <c r="J347" s="4">
         <v>97</v>
@@ -14782,8 +14794,8 @@
       <c r="L347" s="4">
         <v>14</v>
       </c>
-      <c r="M347" s="5">
-        <v>3.9550000000000001</v>
+      <c r="M347" s="7">
+        <v>3955</v>
       </c>
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.25">
@@ -14808,11 +14820,11 @@
       <c r="G348" s="4">
         <v>498</v>
       </c>
-      <c r="H348" s="4">
-        <v>1.5609999999999999</v>
-      </c>
-      <c r="I348" s="4">
-        <v>1.327</v>
+      <c r="H348" s="9">
+        <v>1561</v>
+      </c>
+      <c r="I348" s="9">
+        <v>1327</v>
       </c>
       <c r="J348" s="4">
         <v>177</v>
@@ -14823,8 +14835,8 @@
       <c r="L348" s="4">
         <v>7</v>
       </c>
-      <c r="M348" s="5">
-        <v>4.2519999999999998</v>
+      <c r="M348" s="7">
+        <v>4252</v>
       </c>
     </row>
     <row r="349" spans="1:13" x14ac:dyDescent="0.25">
@@ -14847,11 +14859,11 @@
       <c r="G349" s="4">
         <v>543</v>
       </c>
-      <c r="H349" s="4">
-        <v>1.2270000000000001</v>
-      </c>
-      <c r="I349" s="4">
-        <v>1.5049999999999999</v>
+      <c r="H349" s="9">
+        <v>1227</v>
+      </c>
+      <c r="I349" s="9">
+        <v>1505</v>
       </c>
       <c r="J349" s="4">
         <v>134</v>
@@ -14862,8 +14874,8 @@
       <c r="L349" s="4">
         <v>9</v>
       </c>
-      <c r="M349" s="5">
-        <v>4.5019999999999998</v>
+      <c r="M349" s="7">
+        <v>4502</v>
       </c>
     </row>
     <row r="350" spans="1:13" x14ac:dyDescent="0.25">
@@ -14882,17 +14894,17 @@
       <c r="E350" s="4">
         <v>236</v>
       </c>
-      <c r="F350" s="4">
-        <v>1.038</v>
+      <c r="F350" s="9">
+        <v>1038</v>
       </c>
       <c r="G350" s="4">
         <v>518</v>
       </c>
-      <c r="H350" s="4">
-        <v>1.7649999999999999</v>
-      </c>
-      <c r="I350" s="4">
-        <v>1.3049999999999999</v>
+      <c r="H350" s="9">
+        <v>1765</v>
+      </c>
+      <c r="I350" s="9">
+        <v>1305</v>
       </c>
       <c r="J350" s="4">
         <v>130</v>
@@ -14903,8 +14915,8 @@
       <c r="L350" s="4">
         <v>7</v>
       </c>
-      <c r="M350" s="5">
-        <v>5.0039999999999996</v>
+      <c r="M350" s="7">
+        <v>5004</v>
       </c>
     </row>
     <row r="351" spans="1:13" x14ac:dyDescent="0.25">
@@ -14927,8 +14939,8 @@
       <c r="G351" s="4">
         <v>667</v>
       </c>
-      <c r="H351" s="4">
-        <v>1.2210000000000001</v>
+      <c r="H351" s="9">
+        <v>1221</v>
       </c>
       <c r="I351" s="4">
         <v>910</v>
@@ -14942,8 +14954,8 @@
       <c r="L351" s="4">
         <v>13</v>
       </c>
-      <c r="M351" s="5">
-        <v>4.6529999999999996</v>
+      <c r="M351" s="7">
+        <v>4653</v>
       </c>
     </row>
     <row r="352" spans="1:13" x14ac:dyDescent="0.25">
@@ -14968,8 +14980,8 @@
       <c r="G352" s="4">
         <v>960</v>
       </c>
-      <c r="H352" s="4">
-        <v>1.718</v>
+      <c r="H352" s="9">
+        <v>1718</v>
       </c>
       <c r="I352" s="4">
         <v>852</v>
@@ -14983,8 +14995,8 @@
       <c r="L352" s="4">
         <v>4</v>
       </c>
-      <c r="M352" s="5">
-        <v>4.952</v>
+      <c r="M352" s="7">
+        <v>4952</v>
       </c>
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.25">
@@ -14998,8 +15010,8 @@
       <c r="D353" s="4">
         <v>20</v>
       </c>
-      <c r="E353" s="4">
-        <v>1.33</v>
+      <c r="E353" s="9">
+        <v>1330</v>
       </c>
       <c r="F353" s="4">
         <v>645</v>
@@ -15007,8 +15019,8 @@
       <c r="G353" s="4">
         <v>890</v>
       </c>
-      <c r="H353" s="4">
-        <v>1</v>
+      <c r="H353" s="9">
+        <v>1000</v>
       </c>
       <c r="I353" s="4">
         <v>631</v>
@@ -15022,8 +15034,8 @@
       <c r="L353" s="4">
         <v>12</v>
       </c>
-      <c r="M353" s="5">
-        <v>4.63</v>
+      <c r="M353" s="7">
+        <v>4630</v>
       </c>
     </row>
     <row r="354" spans="1:13" x14ac:dyDescent="0.25">
@@ -15042,14 +15054,14 @@
       <c r="E354" s="4">
         <v>427</v>
       </c>
-      <c r="F354" s="4">
-        <v>1.0169999999999999</v>
+      <c r="F354" s="9">
+        <v>1017</v>
       </c>
       <c r="G354" s="4">
         <v>683</v>
       </c>
-      <c r="H354" s="4">
-        <v>1.18</v>
+      <c r="H354" s="9">
+        <v>1180</v>
       </c>
       <c r="I354" s="4">
         <v>547</v>
@@ -15063,8 +15075,8 @@
       <c r="L354" s="4">
         <v>5</v>
       </c>
-      <c r="M354" s="5">
-        <v>3.927</v>
+      <c r="M354" s="7">
+        <v>3927</v>
       </c>
     </row>
     <row r="355" spans="1:13" x14ac:dyDescent="0.25">
@@ -15078,8 +15090,8 @@
       <c r="D355" s="4">
         <v>21</v>
       </c>
-      <c r="E355" s="4">
-        <v>1.4279999999999999</v>
+      <c r="E355" s="9">
+        <v>1428</v>
       </c>
       <c r="F355" s="4">
         <v>553</v>
@@ -15102,8 +15114,8 @@
       <c r="L355" s="4">
         <v>7</v>
       </c>
-      <c r="M355" s="5">
-        <v>3.76</v>
+      <c r="M355" s="7">
+        <v>3760</v>
       </c>
     </row>
     <row r="356" spans="1:13" x14ac:dyDescent="0.25">
@@ -15143,8 +15155,8 @@
       <c r="L356" s="4">
         <v>10</v>
       </c>
-      <c r="M356" s="5">
-        <v>3.3260000000000001</v>
+      <c r="M356" s="7">
+        <v>3326</v>
       </c>
     </row>
     <row r="357" spans="1:13" x14ac:dyDescent="0.25">
@@ -15158,8 +15170,8 @@
       <c r="D357" s="4">
         <v>47</v>
       </c>
-      <c r="E357" s="4">
-        <v>1.653</v>
+      <c r="E357" s="9">
+        <v>1653</v>
       </c>
       <c r="F357" s="4">
         <v>410</v>
@@ -15182,8 +15194,8 @@
       <c r="L357" s="4">
         <v>12</v>
       </c>
-      <c r="M357" s="5">
-        <v>3.427</v>
+      <c r="M357" s="7">
+        <v>3427</v>
       </c>
     </row>
     <row r="358" spans="1:13" x14ac:dyDescent="0.25">
@@ -15223,8 +15235,8 @@
       <c r="L358" s="4">
         <v>11</v>
       </c>
-      <c r="M358" s="5">
-        <v>3.0339999999999998</v>
+      <c r="M358" s="7">
+        <v>3034</v>
       </c>
     </row>
     <row r="359" spans="1:13" x14ac:dyDescent="0.25">
@@ -15238,8 +15250,8 @@
       <c r="D359" s="4">
         <v>81</v>
       </c>
-      <c r="E359" s="4">
-        <v>2.0219999999999998</v>
+      <c r="E359" s="9">
+        <v>2022</v>
       </c>
       <c r="F359" s="4">
         <v>246</v>
@@ -15262,8 +15274,8 @@
       <c r="L359" s="4">
         <v>13</v>
       </c>
-      <c r="M359" s="5">
-        <v>3.2709999999999999</v>
+      <c r="M359" s="7">
+        <v>3271</v>
       </c>
     </row>
     <row r="360" spans="1:13" x14ac:dyDescent="0.25">
@@ -15279,8 +15291,8 @@
       <c r="D360" s="4">
         <v>16</v>
       </c>
-      <c r="E360" s="4">
-        <v>1.2430000000000001</v>
+      <c r="E360" s="9">
+        <v>1243</v>
       </c>
       <c r="F360" s="4">
         <v>315</v>
@@ -15303,8 +15315,8 @@
       <c r="L360" s="4">
         <v>8</v>
       </c>
-      <c r="M360" s="5">
-        <v>2.8170000000000002</v>
+      <c r="M360" s="7">
+        <v>2817</v>
       </c>
     </row>
     <row r="361" spans="1:13" x14ac:dyDescent="0.25">
@@ -15318,8 +15330,8 @@
       <c r="D361" s="4">
         <v>171</v>
       </c>
-      <c r="E361" s="4">
-        <v>2.0230000000000001</v>
+      <c r="E361" s="9">
+        <v>2023</v>
       </c>
       <c r="F361" s="4">
         <v>80</v>
@@ -15342,8 +15354,8 @@
       <c r="L361" s="4">
         <v>11</v>
       </c>
-      <c r="M361" s="5">
-        <v>2.89</v>
+      <c r="M361" s="7">
+        <v>2890</v>
       </c>
     </row>
     <row r="362" spans="1:13" x14ac:dyDescent="0.25">
@@ -15359,8 +15371,8 @@
       <c r="D362" s="4">
         <v>65</v>
       </c>
-      <c r="E362" s="4">
-        <v>1.256</v>
+      <c r="E362" s="9">
+        <v>1256</v>
       </c>
       <c r="F362" s="4">
         <v>124</v>
@@ -15383,8 +15395,8 @@
       <c r="L362" s="4">
         <v>6</v>
       </c>
-      <c r="M362" s="5">
-        <v>2.161</v>
+      <c r="M362" s="7">
+        <v>2161</v>
       </c>
     </row>
     <row r="363" spans="1:13" x14ac:dyDescent="0.25">
@@ -15398,8 +15410,8 @@
       <c r="D363" s="4">
         <v>245</v>
       </c>
-      <c r="E363" s="4">
-        <v>1.552</v>
+      <c r="E363" s="9">
+        <v>1552</v>
       </c>
       <c r="F363" s="4">
         <v>28</v>
@@ -15422,8 +15434,8 @@
       <c r="L363" s="4">
         <v>15</v>
       </c>
-      <c r="M363" s="5">
-        <v>2.2109999999999999</v>
+      <c r="M363" s="7">
+        <v>2211</v>
       </c>
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.25">
@@ -15463,8 +15475,8 @@
       <c r="L364" s="4">
         <v>9</v>
       </c>
-      <c r="M364" s="5">
-        <v>1.41</v>
+      <c r="M364" s="7">
+        <v>1410</v>
       </c>
     </row>
     <row r="365" spans="1:13" x14ac:dyDescent="0.25">
@@ -15478,8 +15490,8 @@
       <c r="D365" s="4">
         <v>258</v>
       </c>
-      <c r="E365" s="4">
-        <v>1.008</v>
+      <c r="E365" s="9">
+        <v>1008</v>
       </c>
       <c r="F365" s="4">
         <v>8</v>
@@ -15502,8 +15514,8 @@
       <c r="L365" s="4">
         <v>18</v>
       </c>
-      <c r="M365" s="5">
-        <v>1.5329999999999999</v>
+      <c r="M365" s="7">
+        <v>1533</v>
       </c>
     </row>
     <row r="366" spans="1:13" x14ac:dyDescent="0.25">
@@ -15543,8 +15555,8 @@
       <c r="L366" s="4">
         <v>14</v>
       </c>
-      <c r="M366" s="5">
-        <v>1.4750000000000001</v>
+      <c r="M366" s="7">
+        <v>1475</v>
       </c>
     </row>
     <row r="367" spans="1:13" x14ac:dyDescent="0.25">
@@ -15558,8 +15570,8 @@
       <c r="D367" s="4">
         <v>591</v>
       </c>
-      <c r="E367" s="4">
-        <v>1.1259999999999999</v>
+      <c r="E367" s="9">
+        <v>1126</v>
       </c>
       <c r="F367" s="4">
         <v>1</v>
@@ -15582,8 +15594,8 @@
       <c r="L367" s="4">
         <v>7</v>
       </c>
-      <c r="M367" s="5">
-        <v>2.218</v>
+      <c r="M367" s="7">
+        <v>2218</v>
       </c>
     </row>
     <row r="368" spans="1:13" x14ac:dyDescent="0.25">
@@ -15594,26 +15606,26 @@
       <c r="C368" s="5">
         <v>908</v>
       </c>
-      <c r="D368" s="5">
-        <v>2.0640000000000001</v>
-      </c>
-      <c r="E368" s="5">
-        <v>19.882999999999999</v>
-      </c>
-      <c r="F368" s="5">
-        <v>9.59</v>
-      </c>
-      <c r="G368" s="5">
-        <v>13.226000000000001</v>
-      </c>
-      <c r="H368" s="5">
-        <v>22.882999999999999</v>
-      </c>
-      <c r="I368" s="5">
-        <v>13.525</v>
-      </c>
-      <c r="J368" s="5">
-        <v>1.06</v>
+      <c r="D368" s="7">
+        <v>2064</v>
+      </c>
+      <c r="E368" s="7">
+        <v>19883</v>
+      </c>
+      <c r="F368" s="7">
+        <v>9590</v>
+      </c>
+      <c r="G368" s="7">
+        <v>13226</v>
+      </c>
+      <c r="H368" s="7">
+        <v>22883</v>
+      </c>
+      <c r="I368" s="7">
+        <v>13525</v>
+      </c>
+      <c r="J368" s="7">
+        <v>1060</v>
       </c>
       <c r="K368" s="5">
         <v>55</v>
@@ -15621,8 +15633,8 @@
       <c r="L368" s="5">
         <v>249</v>
       </c>
-      <c r="M368" s="5">
-        <v>83.442999999999998</v>
+      <c r="M368" s="7">
+        <v>83443</v>
       </c>
     </row>
     <row r="369" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -15683,11 +15695,11 @@
       <c r="F370" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G370" s="4">
-        <v>2.33</v>
-      </c>
-      <c r="H370" s="4">
-        <v>4.8630000000000004</v>
+      <c r="G370" s="9">
+        <v>2330</v>
+      </c>
+      <c r="H370" s="9">
+        <v>4863</v>
       </c>
       <c r="I370" s="4">
         <v>967</v>
@@ -15701,8 +15713,8 @@
       <c r="L370" s="4">
         <v>59</v>
       </c>
-      <c r="M370" s="5">
-        <v>8.2829999999999995</v>
+      <c r="M370" s="7">
+        <v>8283</v>
       </c>
     </row>
     <row r="371" spans="1:13" x14ac:dyDescent="0.25">
@@ -15722,14 +15734,14 @@
       <c r="F371" s="4">
         <v>2</v>
       </c>
-      <c r="G371" s="4">
-        <v>1.829</v>
-      </c>
-      <c r="H371" s="4">
-        <v>4.3040000000000003</v>
-      </c>
-      <c r="I371" s="4">
-        <v>1.407</v>
+      <c r="G371" s="9">
+        <v>1829</v>
+      </c>
+      <c r="H371" s="9">
+        <v>4304</v>
+      </c>
+      <c r="I371" s="9">
+        <v>1407</v>
       </c>
       <c r="J371" s="4">
         <v>11</v>
@@ -15740,8 +15752,8 @@
       <c r="L371" s="4">
         <v>11</v>
       </c>
-      <c r="M371" s="5">
-        <v>7.657</v>
+      <c r="M371" s="7">
+        <v>7657</v>
       </c>
     </row>
     <row r="372" spans="1:13" x14ac:dyDescent="0.25">
@@ -15763,14 +15775,14 @@
       <c r="F372" s="4">
         <v>59</v>
       </c>
-      <c r="G372" s="4">
-        <v>1.6279999999999999</v>
-      </c>
-      <c r="H372" s="4">
-        <v>1.915</v>
-      </c>
-      <c r="I372" s="4">
-        <v>2.2370000000000001</v>
+      <c r="G372" s="9">
+        <v>1628</v>
+      </c>
+      <c r="H372" s="9">
+        <v>1915</v>
+      </c>
+      <c r="I372" s="9">
+        <v>2237</v>
       </c>
       <c r="J372" s="4">
         <v>108</v>
@@ -15781,8 +15793,8 @@
       <c r="L372" s="4">
         <v>18</v>
       </c>
-      <c r="M372" s="5">
-        <v>6.0359999999999996</v>
+      <c r="M372" s="7">
+        <v>6036</v>
       </c>
     </row>
     <row r="373" spans="1:13" x14ac:dyDescent="0.25">
@@ -15802,14 +15814,14 @@
       <c r="F373" s="4">
         <v>64</v>
       </c>
-      <c r="G373" s="4">
-        <v>1.347</v>
-      </c>
-      <c r="H373" s="4">
-        <v>1.387</v>
-      </c>
-      <c r="I373" s="4">
-        <v>2.468</v>
+      <c r="G373" s="9">
+        <v>1347</v>
+      </c>
+      <c r="H373" s="9">
+        <v>1387</v>
+      </c>
+      <c r="I373" s="9">
+        <v>2468</v>
       </c>
       <c r="J373" s="4">
         <v>152</v>
@@ -15820,8 +15832,8 @@
       <c r="L373" s="4">
         <v>17</v>
       </c>
-      <c r="M373" s="5">
-        <v>5.74</v>
+      <c r="M373" s="7">
+        <v>5740</v>
       </c>
     </row>
     <row r="374" spans="1:13" x14ac:dyDescent="0.25">
@@ -15840,17 +15852,17 @@
       <c r="E374" s="4">
         <v>56</v>
       </c>
-      <c r="F374" s="4">
-        <v>1.0409999999999999</v>
+      <c r="F374" s="9">
+        <v>1041</v>
       </c>
       <c r="G374" s="4">
         <v>746</v>
       </c>
-      <c r="H374" s="4">
-        <v>2.0369999999999999</v>
-      </c>
-      <c r="I374" s="4">
-        <v>1.7769999999999999</v>
+      <c r="H374" s="9">
+        <v>2037</v>
+      </c>
+      <c r="I374" s="9">
+        <v>1777</v>
       </c>
       <c r="J374" s="4">
         <v>164</v>
@@ -15861,8 +15873,8 @@
       <c r="L374" s="4">
         <v>24</v>
       </c>
-      <c r="M374" s="5">
-        <v>5.9169999999999998</v>
+      <c r="M374" s="7">
+        <v>5917</v>
       </c>
     </row>
     <row r="375" spans="1:13" x14ac:dyDescent="0.25">
@@ -15879,17 +15891,17 @@
       <c r="E375" s="4">
         <v>190</v>
       </c>
-      <c r="F375" s="4">
-        <v>1.073</v>
+      <c r="F375" s="9">
+        <v>1073</v>
       </c>
       <c r="G375" s="4">
         <v>557</v>
       </c>
-      <c r="H375" s="4">
-        <v>1.5209999999999999</v>
-      </c>
-      <c r="I375" s="4">
-        <v>1.8160000000000001</v>
+      <c r="H375" s="9">
+        <v>1521</v>
+      </c>
+      <c r="I375" s="9">
+        <v>1816</v>
       </c>
       <c r="J375" s="4">
         <v>166</v>
@@ -15900,8 +15912,8 @@
       <c r="L375" s="4">
         <v>23</v>
       </c>
-      <c r="M375" s="5">
-        <v>5.6639999999999997</v>
+      <c r="M375" s="7">
+        <v>5664</v>
       </c>
     </row>
     <row r="376" spans="1:13" x14ac:dyDescent="0.25">
@@ -15920,17 +15932,17 @@
       <c r="E376" s="4">
         <v>382</v>
       </c>
-      <c r="F376" s="4">
-        <v>1.266</v>
+      <c r="F376" s="9">
+        <v>1266</v>
       </c>
       <c r="G376" s="4">
         <v>599</v>
       </c>
-      <c r="H376" s="4">
-        <v>2.1269999999999998</v>
-      </c>
-      <c r="I376" s="4">
-        <v>1.4830000000000001</v>
+      <c r="H376" s="9">
+        <v>2127</v>
+      </c>
+      <c r="I376" s="9">
+        <v>1483</v>
       </c>
       <c r="J376" s="4">
         <v>137</v>
@@ -15941,8 +15953,8 @@
       <c r="L376" s="4">
         <v>18</v>
       </c>
-      <c r="M376" s="5">
-        <v>6.0810000000000004</v>
+      <c r="M376" s="7">
+        <v>6081</v>
       </c>
     </row>
     <row r="377" spans="1:13" x14ac:dyDescent="0.25">
@@ -15965,11 +15977,11 @@
       <c r="G377" s="4">
         <v>576</v>
       </c>
-      <c r="H377" s="4">
-        <v>1.833</v>
-      </c>
-      <c r="I377" s="4">
-        <v>1.3340000000000001</v>
+      <c r="H377" s="9">
+        <v>1833</v>
+      </c>
+      <c r="I377" s="9">
+        <v>1334</v>
       </c>
       <c r="J377" s="4">
         <v>162</v>
@@ -15980,8 +15992,8 @@
       <c r="L377" s="4">
         <v>28</v>
       </c>
-      <c r="M377" s="5">
-        <v>6.1369999999999996</v>
+      <c r="M377" s="7">
+        <v>6137</v>
       </c>
     </row>
     <row r="378" spans="1:13" x14ac:dyDescent="0.25">
@@ -16000,17 +16012,17 @@
       <c r="E378" s="4">
         <v>688</v>
       </c>
-      <c r="F378" s="4">
-        <v>1.093</v>
-      </c>
-      <c r="G378" s="4">
-        <v>1.022</v>
-      </c>
-      <c r="H378" s="4">
-        <v>2.3170000000000002</v>
-      </c>
-      <c r="I378" s="4">
-        <v>1.2190000000000001</v>
+      <c r="F378" s="9">
+        <v>1093</v>
+      </c>
+      <c r="G378" s="9">
+        <v>1022</v>
+      </c>
+      <c r="H378" s="9">
+        <v>2317</v>
+      </c>
+      <c r="I378" s="9">
+        <v>1219</v>
       </c>
       <c r="J378" s="4">
         <v>133</v>
@@ -16021,8 +16033,8 @@
       <c r="L378" s="4">
         <v>17</v>
       </c>
-      <c r="M378" s="5">
-        <v>6.5389999999999997</v>
+      <c r="M378" s="7">
+        <v>6539</v>
       </c>
     </row>
     <row r="379" spans="1:13" x14ac:dyDescent="0.25">
@@ -16036,8 +16048,8 @@
       <c r="D379" s="4">
         <v>154</v>
       </c>
-      <c r="E379" s="4">
-        <v>1.42</v>
+      <c r="E379" s="9">
+        <v>1420</v>
       </c>
       <c r="F379" s="4">
         <v>856</v>
@@ -16045,11 +16057,11 @@
       <c r="G379" s="4">
         <v>915</v>
       </c>
-      <c r="H379" s="4">
-        <v>1.7430000000000001</v>
-      </c>
-      <c r="I379" s="4">
-        <v>1.0660000000000001</v>
+      <c r="H379" s="9">
+        <v>1743</v>
+      </c>
+      <c r="I379" s="9">
+        <v>1066</v>
       </c>
       <c r="J379" s="4">
         <v>118</v>
@@ -16060,8 +16072,8 @@
       <c r="L379" s="4">
         <v>20</v>
       </c>
-      <c r="M379" s="5">
-        <v>6.4020000000000001</v>
+      <c r="M379" s="7">
+        <v>6402</v>
       </c>
     </row>
     <row r="380" spans="1:13" x14ac:dyDescent="0.25">
@@ -16080,14 +16092,14 @@
       <c r="E380" s="4">
         <v>783</v>
       </c>
-      <c r="F380" s="4">
-        <v>1.133</v>
+      <c r="F380" s="9">
+        <v>1133</v>
       </c>
       <c r="G380" s="4">
         <v>844</v>
       </c>
-      <c r="H380" s="4">
-        <v>1.7110000000000001</v>
+      <c r="H380" s="9">
+        <v>1711</v>
       </c>
       <c r="I380" s="4">
         <v>985</v>
@@ -16101,8 +16113,8 @@
       <c r="L380" s="4">
         <v>21</v>
       </c>
-      <c r="M380" s="5">
-        <v>5.6230000000000002</v>
+      <c r="M380" s="7">
+        <v>5623</v>
       </c>
     </row>
     <row r="381" spans="1:13" x14ac:dyDescent="0.25">
@@ -16116,8 +16128,8 @@
       <c r="D381" s="4">
         <v>126</v>
       </c>
-      <c r="E381" s="4">
-        <v>1.5149999999999999</v>
+      <c r="E381" s="9">
+        <v>1515</v>
       </c>
       <c r="F381" s="4">
         <v>883</v>
@@ -16125,8 +16137,8 @@
       <c r="G381" s="4">
         <v>833</v>
       </c>
-      <c r="H381" s="4">
-        <v>1.331</v>
+      <c r="H381" s="9">
+        <v>1331</v>
       </c>
       <c r="I381" s="4">
         <v>728</v>
@@ -16140,8 +16152,8 @@
       <c r="L381" s="4">
         <v>19</v>
       </c>
-      <c r="M381" s="5">
-        <v>5.601</v>
+      <c r="M381" s="7">
+        <v>5601</v>
       </c>
     </row>
     <row r="382" spans="1:13" x14ac:dyDescent="0.25">
@@ -16160,14 +16172,14 @@
       <c r="E382" s="4">
         <v>862</v>
       </c>
-      <c r="F382" s="4">
-        <v>1.1160000000000001</v>
+      <c r="F382" s="9">
+        <v>1116</v>
       </c>
       <c r="G382" s="4">
         <v>874</v>
       </c>
-      <c r="H382" s="4">
-        <v>1.27</v>
+      <c r="H382" s="9">
+        <v>1270</v>
       </c>
       <c r="I382" s="4">
         <v>693</v>
@@ -16181,8 +16193,8 @@
       <c r="L382" s="4">
         <v>14</v>
       </c>
-      <c r="M382" s="5">
-        <v>4.9640000000000004</v>
+      <c r="M382" s="7">
+        <v>4964</v>
       </c>
     </row>
     <row r="383" spans="1:13" x14ac:dyDescent="0.25">
@@ -16196,8 +16208,8 @@
       <c r="D383" s="4">
         <v>161</v>
       </c>
-      <c r="E383" s="4">
-        <v>1.6539999999999999</v>
+      <c r="E383" s="9">
+        <v>1654</v>
       </c>
       <c r="F383" s="4">
         <v>828</v>
@@ -16205,8 +16217,8 @@
       <c r="G383" s="4">
         <v>759</v>
       </c>
-      <c r="H383" s="4">
-        <v>1.083</v>
+      <c r="H383" s="9">
+        <v>1083</v>
       </c>
       <c r="I383" s="4">
         <v>461</v>
@@ -16220,8 +16232,8 @@
       <c r="L383" s="4">
         <v>17</v>
       </c>
-      <c r="M383" s="5">
-        <v>5.1660000000000004</v>
+      <c r="M383" s="7">
+        <v>5166</v>
       </c>
     </row>
     <row r="384" spans="1:13" x14ac:dyDescent="0.25">
@@ -16237,8 +16249,8 @@
       <c r="D384" s="4">
         <v>35</v>
       </c>
-      <c r="E384" s="4">
-        <v>1.1879999999999999</v>
+      <c r="E384" s="9">
+        <v>1188</v>
       </c>
       <c r="F384" s="4">
         <v>967</v>
@@ -16246,8 +16258,8 @@
       <c r="G384" s="4">
         <v>744</v>
       </c>
-      <c r="H384" s="4">
-        <v>1.0580000000000001</v>
+      <c r="H384" s="9">
+        <v>1058</v>
       </c>
       <c r="I384" s="4">
         <v>568</v>
@@ -16261,8 +16273,8 @@
       <c r="L384" s="4">
         <v>19</v>
       </c>
-      <c r="M384" s="5">
-        <v>4.68</v>
+      <c r="M384" s="7">
+        <v>4680</v>
       </c>
     </row>
     <row r="385" spans="1:13" x14ac:dyDescent="0.25">
@@ -16276,8 +16288,8 @@
       <c r="D385" s="4">
         <v>187</v>
       </c>
-      <c r="E385" s="4">
-        <v>2.048</v>
+      <c r="E385" s="9">
+        <v>2048</v>
       </c>
       <c r="F385" s="4">
         <v>550</v>
@@ -16300,8 +16312,8 @@
       <c r="L385" s="4">
         <v>25</v>
       </c>
-      <c r="M385" s="5">
-        <v>4.7880000000000003</v>
+      <c r="M385" s="7">
+        <v>4788</v>
       </c>
     </row>
     <row r="386" spans="1:13" x14ac:dyDescent="0.25">
@@ -16317,8 +16329,8 @@
       <c r="D386" s="4">
         <v>48</v>
       </c>
-      <c r="E386" s="4">
-        <v>1.571</v>
+      <c r="E386" s="9">
+        <v>1571</v>
       </c>
       <c r="F386" s="4">
         <v>522</v>
@@ -16341,8 +16353,8 @@
       <c r="L386" s="4">
         <v>21</v>
       </c>
-      <c r="M386" s="5">
-        <v>4.12</v>
+      <c r="M386" s="7">
+        <v>4120</v>
       </c>
     </row>
     <row r="387" spans="1:13" x14ac:dyDescent="0.25">
@@ -16356,8 +16368,8 @@
       <c r="D387" s="4">
         <v>250</v>
       </c>
-      <c r="E387" s="4">
-        <v>2.266</v>
+      <c r="E387" s="9">
+        <v>2266</v>
       </c>
       <c r="F387" s="4">
         <v>229</v>
@@ -16380,8 +16392,8 @@
       <c r="L387" s="4">
         <v>25</v>
       </c>
-      <c r="M387" s="5">
-        <v>4.24</v>
+      <c r="M387" s="7">
+        <v>4240</v>
       </c>
     </row>
     <row r="388" spans="1:13" x14ac:dyDescent="0.25">
@@ -16397,8 +16409,8 @@
       <c r="D388" s="4">
         <v>66</v>
       </c>
-      <c r="E388" s="4">
-        <v>1.4850000000000001</v>
+      <c r="E388" s="9">
+        <v>1485</v>
       </c>
       <c r="F388" s="4">
         <v>205</v>
@@ -16421,8 +16433,8 @@
       <c r="L388" s="4">
         <v>20</v>
       </c>
-      <c r="M388" s="5">
-        <v>3.0329999999999999</v>
+      <c r="M388" s="7">
+        <v>3033</v>
       </c>
     </row>
     <row r="389" spans="1:13" x14ac:dyDescent="0.25">
@@ -16436,8 +16448,8 @@
       <c r="D389" s="4">
         <v>245</v>
       </c>
-      <c r="E389" s="4">
-        <v>2.0939999999999999</v>
+      <c r="E389" s="9">
+        <v>2094</v>
       </c>
       <c r="F389" s="4">
         <v>103</v>
@@ -16460,8 +16472,8 @@
       <c r="L389" s="4">
         <v>25</v>
       </c>
-      <c r="M389" s="5">
-        <v>3.5030000000000001</v>
+      <c r="M389" s="7">
+        <v>3503</v>
       </c>
     </row>
     <row r="390" spans="1:13" x14ac:dyDescent="0.25">
@@ -16477,8 +16489,8 @@
       <c r="D390" s="4">
         <v>64</v>
       </c>
-      <c r="E390" s="4">
-        <v>1.2350000000000001</v>
+      <c r="E390" s="9">
+        <v>1235</v>
       </c>
       <c r="F390" s="4">
         <v>52</v>
@@ -16501,8 +16513,8 @@
       <c r="L390" s="4">
         <v>11</v>
       </c>
-      <c r="M390" s="5">
-        <v>2.121</v>
+      <c r="M390" s="7">
+        <v>2121</v>
       </c>
     </row>
     <row r="391" spans="1:13" x14ac:dyDescent="0.25">
@@ -16516,8 +16528,8 @@
       <c r="D391" s="4">
         <v>271</v>
       </c>
-      <c r="E391" s="4">
-        <v>1.698</v>
+      <c r="E391" s="9">
+        <v>1698</v>
       </c>
       <c r="F391" s="4">
         <v>17</v>
@@ -16540,8 +16552,8 @@
       <c r="L391" s="4">
         <v>14</v>
       </c>
-      <c r="M391" s="5">
-        <v>2.6960000000000002</v>
+      <c r="M391" s="7">
+        <v>2696</v>
       </c>
     </row>
     <row r="392" spans="1:13" x14ac:dyDescent="0.25">
@@ -16557,8 +16569,8 @@
       <c r="D392" s="4">
         <v>215</v>
       </c>
-      <c r="E392" s="4">
-        <v>1.478</v>
+      <c r="E392" s="9">
+        <v>1478</v>
       </c>
       <c r="F392" s="4">
         <v>33</v>
@@ -16581,8 +16593,8 @@
       <c r="L392" s="4">
         <v>23</v>
       </c>
-      <c r="M392" s="5">
-        <v>2.492</v>
+      <c r="M392" s="7">
+        <v>2492</v>
       </c>
     </row>
     <row r="393" spans="1:13" x14ac:dyDescent="0.25">
@@ -16596,8 +16608,8 @@
       <c r="D393" s="4">
         <v>565</v>
       </c>
-      <c r="E393" s="4">
-        <v>2.1850000000000001</v>
+      <c r="E393" s="9">
+        <v>2185</v>
       </c>
       <c r="F393" s="4">
         <v>5</v>
@@ -16620,8 +16632,8 @@
       <c r="L393" s="4">
         <v>30</v>
       </c>
-      <c r="M393" s="5">
-        <v>4.0110000000000001</v>
+      <c r="M393" s="7">
+        <v>4011</v>
       </c>
     </row>
     <row r="394" spans="1:13" x14ac:dyDescent="0.25">
@@ -16629,29 +16641,29 @@
         <v>12</v>
       </c>
       <c r="B394" s="6"/>
-      <c r="C394" s="5">
-        <v>2.2770000000000001</v>
-      </c>
-      <c r="D394" s="5">
-        <v>3.121</v>
-      </c>
-      <c r="E394" s="5">
-        <v>26.12</v>
-      </c>
-      <c r="F394" s="5">
-        <v>13.085000000000001</v>
-      </c>
-      <c r="G394" s="5">
-        <v>18.204999999999998</v>
-      </c>
-      <c r="H394" s="5">
-        <v>34.545999999999999</v>
-      </c>
-      <c r="I394" s="5">
-        <v>21.724</v>
-      </c>
-      <c r="J394" s="5">
-        <v>1.6419999999999999</v>
+      <c r="C394" s="7">
+        <v>2277</v>
+      </c>
+      <c r="D394" s="7">
+        <v>3121</v>
+      </c>
+      <c r="E394" s="7">
+        <v>26120</v>
+      </c>
+      <c r="F394" s="7">
+        <v>13085</v>
+      </c>
+      <c r="G394" s="7">
+        <v>18205</v>
+      </c>
+      <c r="H394" s="7">
+        <v>34546</v>
+      </c>
+      <c r="I394" s="7">
+        <v>21724</v>
+      </c>
+      <c r="J394" s="7">
+        <v>1642</v>
       </c>
       <c r="K394" s="5">
         <v>255</v>
@@ -16659,8 +16671,8 @@
       <c r="L394" s="5">
         <v>519</v>
       </c>
-      <c r="M394" s="5">
-        <v>121.494</v>
+      <c r="M394" s="7">
+        <v>121494</v>
       </c>
     </row>
     <row r="395" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -16721,11 +16733,11 @@
       <c r="F396" s="4">
         <v>5</v>
       </c>
-      <c r="G396" s="4">
-        <v>2.8690000000000002</v>
-      </c>
-      <c r="H396" s="4">
-        <v>5.1280000000000001</v>
+      <c r="G396" s="9">
+        <v>2869</v>
+      </c>
+      <c r="H396" s="9">
+        <v>5128</v>
       </c>
       <c r="I396" s="4">
         <v>952</v>
@@ -16739,8 +16751,8 @@
       <c r="L396" s="4">
         <v>72</v>
       </c>
-      <c r="M396" s="5">
-        <v>9.1140000000000008</v>
+      <c r="M396" s="7">
+        <v>9114</v>
       </c>
     </row>
     <row r="397" spans="1:13" x14ac:dyDescent="0.25">
@@ -16760,14 +16772,14 @@
       <c r="F397" s="4">
         <v>2</v>
       </c>
-      <c r="G397" s="4">
-        <v>2.294</v>
-      </c>
-      <c r="H397" s="4">
-        <v>4.8289999999999997</v>
-      </c>
-      <c r="I397" s="4">
-        <v>1.4510000000000001</v>
+      <c r="G397" s="9">
+        <v>2294</v>
+      </c>
+      <c r="H397" s="9">
+        <v>4829</v>
+      </c>
+      <c r="I397" s="9">
+        <v>1451</v>
       </c>
       <c r="J397" s="4">
         <v>7</v>
@@ -16778,8 +16790,8 @@
       <c r="L397" s="4">
         <v>14</v>
       </c>
-      <c r="M397" s="5">
-        <v>8.7230000000000008</v>
+      <c r="M397" s="7">
+        <v>8723</v>
       </c>
     </row>
     <row r="398" spans="1:13" x14ac:dyDescent="0.25">
@@ -16801,14 +16813,14 @@
       <c r="F398" s="4">
         <v>72</v>
       </c>
-      <c r="G398" s="4">
-        <v>2.0329999999999999</v>
-      </c>
-      <c r="H398" s="4">
-        <v>2.1280000000000001</v>
-      </c>
-      <c r="I398" s="4">
-        <v>2.069</v>
+      <c r="G398" s="9">
+        <v>2033</v>
+      </c>
+      <c r="H398" s="9">
+        <v>2128</v>
+      </c>
+      <c r="I398" s="9">
+        <v>2069</v>
       </c>
       <c r="J398" s="4">
         <v>99</v>
@@ -16819,8 +16831,8 @@
       <c r="L398" s="4">
         <v>21</v>
       </c>
-      <c r="M398" s="5">
-        <v>6.5279999999999996</v>
+      <c r="M398" s="7">
+        <v>6528</v>
       </c>
     </row>
     <row r="399" spans="1:13" x14ac:dyDescent="0.25">
@@ -16840,14 +16852,14 @@
       <c r="F399" s="4">
         <v>127</v>
       </c>
-      <c r="G399" s="4">
-        <v>1.796</v>
-      </c>
-      <c r="H399" s="4">
-        <v>1.532</v>
-      </c>
-      <c r="I399" s="4">
-        <v>2.4049999999999998</v>
+      <c r="G399" s="9">
+        <v>1796</v>
+      </c>
+      <c r="H399" s="9">
+        <v>1532</v>
+      </c>
+      <c r="I399" s="9">
+        <v>2405</v>
       </c>
       <c r="J399" s="4">
         <v>150</v>
@@ -16858,8 +16870,8 @@
       <c r="L399" s="4">
         <v>23</v>
       </c>
-      <c r="M399" s="5">
-        <v>6.3659999999999997</v>
+      <c r="M399" s="7">
+        <v>6366</v>
       </c>
     </row>
     <row r="400" spans="1:13" x14ac:dyDescent="0.25">
@@ -16878,17 +16890,17 @@
       <c r="E400" s="4">
         <v>64</v>
       </c>
-      <c r="F400" s="4">
-        <v>1.3180000000000001</v>
+      <c r="F400" s="9">
+        <v>1318</v>
       </c>
       <c r="G400" s="4">
         <v>853</v>
       </c>
-      <c r="H400" s="4">
-        <v>2.2149999999999999</v>
-      </c>
-      <c r="I400" s="4">
-        <v>1.7529999999999999</v>
+      <c r="H400" s="9">
+        <v>2215</v>
+      </c>
+      <c r="I400" s="9">
+        <v>1753</v>
       </c>
       <c r="J400" s="4">
         <v>153</v>
@@ -16899,8 +16911,8 @@
       <c r="L400" s="4">
         <v>16</v>
       </c>
-      <c r="M400" s="5">
-        <v>6.4779999999999998</v>
+      <c r="M400" s="7">
+        <v>6478</v>
       </c>
     </row>
     <row r="401" spans="1:13" x14ac:dyDescent="0.25">
@@ -16917,17 +16929,17 @@
       <c r="E401" s="4">
         <v>155</v>
       </c>
-      <c r="F401" s="4">
-        <v>1.4810000000000001</v>
+      <c r="F401" s="9">
+        <v>1481</v>
       </c>
       <c r="G401" s="4">
         <v>699</v>
       </c>
-      <c r="H401" s="4">
-        <v>1.8160000000000001</v>
-      </c>
-      <c r="I401" s="4">
-        <v>1.8140000000000001</v>
+      <c r="H401" s="9">
+        <v>1816</v>
+      </c>
+      <c r="I401" s="9">
+        <v>1814</v>
       </c>
       <c r="J401" s="4">
         <v>158</v>
@@ -16938,8 +16950,8 @@
       <c r="L401" s="4">
         <v>26</v>
       </c>
-      <c r="M401" s="5">
-        <v>6.431</v>
+      <c r="M401" s="7">
+        <v>6431</v>
       </c>
     </row>
     <row r="402" spans="1:13" x14ac:dyDescent="0.25">
@@ -16958,17 +16970,17 @@
       <c r="E402" s="4">
         <v>680</v>
       </c>
-      <c r="F402" s="4">
-        <v>1.3839999999999999</v>
+      <c r="F402" s="9">
+        <v>1384</v>
       </c>
       <c r="G402" s="4">
         <v>637</v>
       </c>
-      <c r="H402" s="4">
-        <v>2.2349999999999999</v>
-      </c>
-      <c r="I402" s="4">
-        <v>1.554</v>
+      <c r="H402" s="9">
+        <v>2235</v>
+      </c>
+      <c r="I402" s="9">
+        <v>1554</v>
       </c>
       <c r="J402" s="4">
         <v>166</v>
@@ -16979,8 +16991,8 @@
       <c r="L402" s="4">
         <v>20</v>
       </c>
-      <c r="M402" s="5">
-        <v>6.742</v>
+      <c r="M402" s="7">
+        <v>6742</v>
       </c>
     </row>
     <row r="403" spans="1:13" x14ac:dyDescent="0.25">
@@ -16994,20 +17006,20 @@
       <c r="D403" s="4">
         <v>149</v>
       </c>
-      <c r="E403" s="4">
-        <v>1.329</v>
-      </c>
-      <c r="F403" s="4">
-        <v>1.2370000000000001</v>
+      <c r="E403" s="9">
+        <v>1329</v>
+      </c>
+      <c r="F403" s="9">
+        <v>1237</v>
       </c>
       <c r="G403" s="4">
         <v>669</v>
       </c>
-      <c r="H403" s="4">
-        <v>1.7829999999999999</v>
-      </c>
-      <c r="I403" s="4">
-        <v>1.3380000000000001</v>
+      <c r="H403" s="9">
+        <v>1783</v>
+      </c>
+      <c r="I403" s="9">
+        <v>1338</v>
       </c>
       <c r="J403" s="4">
         <v>136</v>
@@ -17018,8 +17030,8 @@
       <c r="L403" s="4">
         <v>15</v>
       </c>
-      <c r="M403" s="5">
-        <v>6.7110000000000003</v>
+      <c r="M403" s="7">
+        <v>6711</v>
       </c>
     </row>
     <row r="404" spans="1:13" x14ac:dyDescent="0.25">
@@ -17035,20 +17047,20 @@
       <c r="D404" s="4">
         <v>44</v>
       </c>
-      <c r="E404" s="4">
-        <v>1.2430000000000001</v>
-      </c>
-      <c r="F404" s="4">
-        <v>1.046</v>
-      </c>
-      <c r="G404" s="4">
-        <v>1.089</v>
-      </c>
-      <c r="H404" s="4">
-        <v>2.1640000000000001</v>
-      </c>
-      <c r="I404" s="4">
-        <v>1.1579999999999999</v>
+      <c r="E404" s="9">
+        <v>1243</v>
+      </c>
+      <c r="F404" s="9">
+        <v>1046</v>
+      </c>
+      <c r="G404" s="9">
+        <v>1089</v>
+      </c>
+      <c r="H404" s="9">
+        <v>2164</v>
+      </c>
+      <c r="I404" s="9">
+        <v>1158</v>
       </c>
       <c r="J404" s="4">
         <v>168</v>
@@ -17059,8 +17071,8 @@
       <c r="L404" s="4">
         <v>24</v>
       </c>
-      <c r="M404" s="5">
-        <v>6.9690000000000003</v>
+      <c r="M404" s="7">
+        <v>6969</v>
       </c>
     </row>
     <row r="405" spans="1:13" x14ac:dyDescent="0.25">
@@ -17074,8 +17086,8 @@
       <c r="D405" s="4">
         <v>168</v>
       </c>
-      <c r="E405" s="4">
-        <v>2.097</v>
+      <c r="E405" s="9">
+        <v>2097</v>
       </c>
       <c r="F405" s="4">
         <v>838</v>
@@ -17083,11 +17095,11 @@
       <c r="G405" s="4">
         <v>916</v>
       </c>
-      <c r="H405" s="4">
-        <v>1.5960000000000001</v>
-      </c>
-      <c r="I405" s="4">
-        <v>1.0069999999999999</v>
+      <c r="H405" s="9">
+        <v>1596</v>
+      </c>
+      <c r="I405" s="9">
+        <v>1007</v>
       </c>
       <c r="J405" s="4">
         <v>138</v>
@@ -17098,8 +17110,8 @@
       <c r="L405" s="4">
         <v>24</v>
       </c>
-      <c r="M405" s="5">
-        <v>6.86</v>
+      <c r="M405" s="7">
+        <v>6860</v>
       </c>
     </row>
     <row r="406" spans="1:13" x14ac:dyDescent="0.25">
@@ -17115,17 +17127,17 @@
       <c r="D406" s="4">
         <v>34</v>
       </c>
-      <c r="E406" s="4">
-        <v>1.4530000000000001</v>
-      </c>
-      <c r="F406" s="4">
-        <v>1.107</v>
+      <c r="E406" s="9">
+        <v>1453</v>
+      </c>
+      <c r="F406" s="9">
+        <v>1107</v>
       </c>
       <c r="G406" s="4">
         <v>867</v>
       </c>
-      <c r="H406" s="4">
-        <v>1.5229999999999999</v>
+      <c r="H406" s="9">
+        <v>1523</v>
       </c>
       <c r="I406" s="4">
         <v>908</v>
@@ -17139,8 +17151,8 @@
       <c r="L406" s="4">
         <v>22</v>
       </c>
-      <c r="M406" s="5">
-        <v>6.02</v>
+      <c r="M406" s="7">
+        <v>6020</v>
       </c>
     </row>
     <row r="407" spans="1:13" x14ac:dyDescent="0.25">
@@ -17154,8 +17166,8 @@
       <c r="D407" s="4">
         <v>188</v>
       </c>
-      <c r="E407" s="4">
-        <v>2.2719999999999998</v>
+      <c r="E407" s="9">
+        <v>2272</v>
       </c>
       <c r="F407" s="4">
         <v>925</v>
@@ -17163,8 +17175,8 @@
       <c r="G407" s="4">
         <v>771</v>
       </c>
-      <c r="H407" s="4">
-        <v>1.1919999999999999</v>
+      <c r="H407" s="9">
+        <v>1192</v>
       </c>
       <c r="I407" s="4">
         <v>600</v>
@@ -17178,8 +17190,8 @@
       <c r="L407" s="4">
         <v>16</v>
       </c>
-      <c r="M407" s="5">
-        <v>6.069</v>
+      <c r="M407" s="7">
+        <v>6069</v>
       </c>
     </row>
     <row r="408" spans="1:13" x14ac:dyDescent="0.25">
@@ -17195,17 +17207,17 @@
       <c r="D408" s="4">
         <v>40</v>
       </c>
-      <c r="E408" s="4">
-        <v>1.5249999999999999</v>
-      </c>
-      <c r="F408" s="4">
-        <v>1.0940000000000001</v>
+      <c r="E408" s="9">
+        <v>1525</v>
+      </c>
+      <c r="F408" s="9">
+        <v>1094</v>
       </c>
       <c r="G408" s="4">
         <v>807</v>
       </c>
-      <c r="H408" s="4">
-        <v>1.081</v>
+      <c r="H408" s="9">
+        <v>1081</v>
       </c>
       <c r="I408" s="4">
         <v>680</v>
@@ -17219,8 +17231,8 @@
       <c r="L408" s="4">
         <v>22</v>
       </c>
-      <c r="M408" s="5">
-        <v>5.3419999999999996</v>
+      <c r="M408" s="7">
+        <v>5342</v>
       </c>
     </row>
     <row r="409" spans="1:13" x14ac:dyDescent="0.25">
@@ -17234,8 +17246,8 @@
       <c r="D409" s="4">
         <v>213</v>
       </c>
-      <c r="E409" s="4">
-        <v>2.278</v>
+      <c r="E409" s="9">
+        <v>2278</v>
       </c>
       <c r="F409" s="4">
         <v>816</v>
@@ -17258,8 +17270,8 @@
       <c r="L409" s="4">
         <v>26</v>
       </c>
-      <c r="M409" s="5">
-        <v>5.2489999999999997</v>
+      <c r="M409" s="7">
+        <v>5249</v>
       </c>
     </row>
     <row r="410" spans="1:13" x14ac:dyDescent="0.25">
@@ -17275,8 +17287,8 @@
       <c r="D410" s="4">
         <v>53</v>
       </c>
-      <c r="E410" s="4">
-        <v>1.7809999999999999</v>
+      <c r="E410" s="9">
+        <v>1781</v>
       </c>
       <c r="F410" s="4">
         <v>966</v>
@@ -17299,8 +17311,8 @@
       <c r="L410" s="4">
         <v>21</v>
       </c>
-      <c r="M410" s="5">
-        <v>4.8840000000000003</v>
+      <c r="M410" s="7">
+        <v>4884</v>
       </c>
     </row>
     <row r="411" spans="1:13" x14ac:dyDescent="0.25">
@@ -17314,8 +17326,8 @@
       <c r="D411" s="4">
         <v>274</v>
       </c>
-      <c r="E411" s="4">
-        <v>2.508</v>
+      <c r="E411" s="9">
+        <v>2508</v>
       </c>
       <c r="F411" s="4">
         <v>556</v>
@@ -17338,8 +17350,8 @@
       <c r="L411" s="4">
         <v>23</v>
       </c>
-      <c r="M411" s="5">
-        <v>4.7809999999999997</v>
+      <c r="M411" s="7">
+        <v>4781</v>
       </c>
     </row>
     <row r="412" spans="1:13" x14ac:dyDescent="0.25">
@@ -17355,8 +17367,8 @@
       <c r="D412" s="4">
         <v>84</v>
       </c>
-      <c r="E412" s="4">
-        <v>2.1059999999999999</v>
+      <c r="E412" s="9">
+        <v>2106</v>
       </c>
       <c r="F412" s="4">
         <v>521</v>
@@ -17379,8 +17391,8 @@
       <c r="L412" s="4">
         <v>26</v>
       </c>
-      <c r="M412" s="5">
-        <v>4.2759999999999998</v>
+      <c r="M412" s="7">
+        <v>4276</v>
       </c>
     </row>
     <row r="413" spans="1:13" x14ac:dyDescent="0.25">
@@ -17394,8 +17406,8 @@
       <c r="D413" s="4">
         <v>364</v>
       </c>
-      <c r="E413" s="4">
-        <v>2.6539999999999999</v>
+      <c r="E413" s="9">
+        <v>2654</v>
       </c>
       <c r="F413" s="4">
         <v>282</v>
@@ -17418,8 +17430,8 @@
       <c r="L413" s="4">
         <v>20</v>
       </c>
-      <c r="M413" s="5">
-        <v>4.3540000000000001</v>
+      <c r="M413" s="7">
+        <v>4354</v>
       </c>
     </row>
     <row r="414" spans="1:13" x14ac:dyDescent="0.25">
@@ -17435,8 +17447,8 @@
       <c r="D414" s="4">
         <v>115</v>
       </c>
-      <c r="E414" s="4">
-        <v>1.9</v>
+      <c r="E414" s="9">
+        <v>1900</v>
       </c>
       <c r="F414" s="4">
         <v>209</v>
@@ -17459,8 +17471,8 @@
       <c r="L414" s="4">
         <v>14</v>
       </c>
-      <c r="M414" s="5">
-        <v>3.2589999999999999</v>
+      <c r="M414" s="7">
+        <v>3259</v>
       </c>
     </row>
     <row r="415" spans="1:13" x14ac:dyDescent="0.25">
@@ -17474,8 +17486,8 @@
       <c r="D415" s="4">
         <v>425</v>
       </c>
-      <c r="E415" s="4">
-        <v>2.1469999999999998</v>
+      <c r="E415" s="9">
+        <v>2147</v>
       </c>
       <c r="F415" s="4">
         <v>120</v>
@@ -17498,8 +17510,8 @@
       <c r="L415" s="4">
         <v>15</v>
       </c>
-      <c r="M415" s="5">
-        <v>3.4889999999999999</v>
+      <c r="M415" s="7">
+        <v>3489</v>
       </c>
     </row>
     <row r="416" spans="1:13" x14ac:dyDescent="0.25">
@@ -17515,8 +17527,8 @@
       <c r="D416" s="4">
         <v>126</v>
       </c>
-      <c r="E416" s="4">
-        <v>1.474</v>
+      <c r="E416" s="9">
+        <v>1474</v>
       </c>
       <c r="F416" s="4">
         <v>85</v>
@@ -17539,8 +17551,8 @@
       <c r="L416" s="4">
         <v>14</v>
       </c>
-      <c r="M416" s="5">
-        <v>2.2839999999999998</v>
+      <c r="M416" s="7">
+        <v>2284</v>
       </c>
     </row>
     <row r="417" spans="1:13" x14ac:dyDescent="0.25">
@@ -17554,8 +17566,8 @@
       <c r="D417" s="4">
         <v>537</v>
       </c>
-      <c r="E417" s="4">
-        <v>1.548</v>
+      <c r="E417" s="9">
+        <v>1548</v>
       </c>
       <c r="F417" s="4">
         <v>29</v>
@@ -17578,8 +17590,8 @@
       <c r="L417" s="4">
         <v>23</v>
       </c>
-      <c r="M417" s="5">
-        <v>2.641</v>
+      <c r="M417" s="7">
+        <v>2641</v>
       </c>
     </row>
     <row r="418" spans="1:13" x14ac:dyDescent="0.25">
@@ -17595,8 +17607,8 @@
       <c r="D418" s="4">
         <v>333</v>
       </c>
-      <c r="E418" s="4">
-        <v>1.4450000000000001</v>
+      <c r="E418" s="9">
+        <v>1445</v>
       </c>
       <c r="F418" s="4">
         <v>30</v>
@@ -17619,8 +17631,8 @@
       <c r="L418" s="4">
         <v>13</v>
       </c>
-      <c r="M418" s="5">
-        <v>2.3010000000000002</v>
+      <c r="M418" s="7">
+        <v>2301</v>
       </c>
     </row>
     <row r="419" spans="1:13" x14ac:dyDescent="0.25">
@@ -17634,8 +17646,8 @@
       <c r="D419" s="4">
         <v>992</v>
       </c>
-      <c r="E419" s="4">
-        <v>1.5309999999999999</v>
+      <c r="E419" s="9">
+        <v>1531</v>
       </c>
       <c r="F419" s="4">
         <v>17</v>
@@ -17658,8 +17670,8 @@
       <c r="L419" s="4">
         <v>13</v>
       </c>
-      <c r="M419" s="5">
-        <v>3.532</v>
+      <c r="M419" s="7">
+        <v>3532</v>
       </c>
     </row>
     <row r="420" spans="1:13" x14ac:dyDescent="0.25">
@@ -17667,29 +17679,29 @@
         <v>12</v>
       </c>
       <c r="B420" s="6"/>
-      <c r="C420" s="5">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="D420" s="5">
-        <v>4.7750000000000004</v>
-      </c>
-      <c r="E420" s="5">
-        <v>32.548999999999999</v>
-      </c>
-      <c r="F420" s="5">
-        <v>14.266999999999999</v>
-      </c>
-      <c r="G420" s="5">
-        <v>19.436</v>
-      </c>
-      <c r="H420" s="5">
-        <v>33.908000000000001</v>
-      </c>
-      <c r="I420" s="5">
-        <v>20.158000000000001</v>
-      </c>
-      <c r="J420" s="5">
-        <v>1.595</v>
+      <c r="C420" s="7">
+        <v>2050</v>
+      </c>
+      <c r="D420" s="7">
+        <v>4775</v>
+      </c>
+      <c r="E420" s="7">
+        <v>32549</v>
+      </c>
+      <c r="F420" s="7">
+        <v>14267</v>
+      </c>
+      <c r="G420" s="7">
+        <v>19436</v>
+      </c>
+      <c r="H420" s="7">
+        <v>33908</v>
+      </c>
+      <c r="I420" s="7">
+        <v>20158</v>
+      </c>
+      <c r="J420" s="7">
+        <v>1595</v>
       </c>
       <c r="K420" s="5">
         <v>142</v>
@@ -17697,8 +17709,8 @@
       <c r="L420" s="5">
         <v>523</v>
       </c>
-      <c r="M420" s="5">
-        <v>129.40299999999999</v>
+      <c r="M420" s="7">
+        <v>129403</v>
       </c>
     </row>
     <row r="421" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -17759,14 +17771,14 @@
       <c r="F422" s="4">
         <v>2</v>
       </c>
-      <c r="G422" s="4">
-        <v>3.246</v>
-      </c>
-      <c r="H422" s="4">
-        <v>7.4480000000000004</v>
-      </c>
-      <c r="I422" s="4">
-        <v>1.546</v>
+      <c r="G422" s="9">
+        <v>3246</v>
+      </c>
+      <c r="H422" s="9">
+        <v>7448</v>
+      </c>
+      <c r="I422" s="9">
+        <v>1546</v>
       </c>
       <c r="J422" s="4">
         <v>9</v>
@@ -17777,8 +17789,8 @@
       <c r="L422" s="4">
         <v>71</v>
       </c>
-      <c r="M422" s="5">
-        <v>12.407</v>
+      <c r="M422" s="7">
+        <v>12407</v>
       </c>
     </row>
     <row r="423" spans="1:13" x14ac:dyDescent="0.25">
@@ -17798,14 +17810,14 @@
       <c r="F423" s="4">
         <v>4</v>
       </c>
-      <c r="G423" s="4">
-        <v>2.6070000000000002</v>
-      </c>
-      <c r="H423" s="4">
-        <v>7.2759999999999998</v>
-      </c>
-      <c r="I423" s="4">
-        <v>2.2360000000000002</v>
+      <c r="G423" s="9">
+        <v>2607</v>
+      </c>
+      <c r="H423" s="9">
+        <v>7276</v>
+      </c>
+      <c r="I423" s="9">
+        <v>2236</v>
       </c>
       <c r="J423" s="4">
         <v>26</v>
@@ -17816,8 +17828,8 @@
       <c r="L423" s="4">
         <v>6</v>
       </c>
-      <c r="M423" s="5">
-        <v>12.297000000000001</v>
+      <c r="M423" s="7">
+        <v>12297</v>
       </c>
     </row>
     <row r="424" spans="1:13" x14ac:dyDescent="0.25">
@@ -17839,14 +17851,14 @@
       <c r="F424" s="4">
         <v>61</v>
       </c>
-      <c r="G424" s="4">
-        <v>2.274</v>
-      </c>
-      <c r="H424" s="4">
-        <v>3.19</v>
-      </c>
-      <c r="I424" s="4">
-        <v>3.8410000000000002</v>
+      <c r="G424" s="9">
+        <v>2274</v>
+      </c>
+      <c r="H424" s="9">
+        <v>3190</v>
+      </c>
+      <c r="I424" s="9">
+        <v>3841</v>
       </c>
       <c r="J424" s="4">
         <v>300</v>
@@ -17857,8 +17869,8 @@
       <c r="L424" s="4">
         <v>24</v>
       </c>
-      <c r="M424" s="5">
-        <v>9.7850000000000001</v>
+      <c r="M424" s="7">
+        <v>9785</v>
       </c>
     </row>
     <row r="425" spans="1:13" x14ac:dyDescent="0.25">
@@ -17878,14 +17890,14 @@
       <c r="F425" s="4">
         <v>100</v>
       </c>
-      <c r="G425" s="4">
-        <v>2.0680000000000001</v>
-      </c>
-      <c r="H425" s="4">
-        <v>2.5059999999999998</v>
-      </c>
-      <c r="I425" s="4">
-        <v>4.54</v>
+      <c r="G425" s="9">
+        <v>2068</v>
+      </c>
+      <c r="H425" s="9">
+        <v>2506</v>
+      </c>
+      <c r="I425" s="9">
+        <v>4540</v>
       </c>
       <c r="J425" s="4">
         <v>390</v>
@@ -17896,8 +17908,8 @@
       <c r="L425" s="4">
         <v>32</v>
       </c>
-      <c r="M425" s="5">
-        <v>10.048</v>
+      <c r="M425" s="7">
+        <v>10048</v>
       </c>
     </row>
     <row r="426" spans="1:13" x14ac:dyDescent="0.25">
@@ -17916,17 +17928,17 @@
       <c r="E426" s="4">
         <v>79</v>
       </c>
-      <c r="F426" s="4">
-        <v>1.502</v>
-      </c>
-      <c r="G426" s="4">
-        <v>1.04</v>
-      </c>
-      <c r="H426" s="4">
-        <v>3.4929999999999999</v>
-      </c>
-      <c r="I426" s="4">
-        <v>3.8690000000000002</v>
+      <c r="F426" s="9">
+        <v>1502</v>
+      </c>
+      <c r="G426" s="9">
+        <v>1040</v>
+      </c>
+      <c r="H426" s="9">
+        <v>3493</v>
+      </c>
+      <c r="I426" s="9">
+        <v>3869</v>
       </c>
       <c r="J426" s="4">
         <v>490</v>
@@ -17937,8 +17949,8 @@
       <c r="L426" s="4">
         <v>34</v>
       </c>
-      <c r="M426" s="5">
-        <v>10.64</v>
+      <c r="M426" s="7">
+        <v>10640</v>
       </c>
     </row>
     <row r="427" spans="1:13" x14ac:dyDescent="0.25">
@@ -17955,17 +17967,17 @@
       <c r="E427" s="4">
         <v>245</v>
       </c>
-      <c r="F427" s="4">
-        <v>1.655</v>
+      <c r="F427" s="9">
+        <v>1655</v>
       </c>
       <c r="G427" s="4">
         <v>869</v>
       </c>
-      <c r="H427" s="4">
-        <v>2.7240000000000002</v>
-      </c>
-      <c r="I427" s="4">
-        <v>3.8889999999999998</v>
+      <c r="H427" s="9">
+        <v>2724</v>
+      </c>
+      <c r="I427" s="9">
+        <v>3889</v>
       </c>
       <c r="J427" s="4">
         <v>532</v>
@@ -17976,8 +17988,8 @@
       <c r="L427" s="4">
         <v>41</v>
       </c>
-      <c r="M427" s="5">
-        <v>10.36</v>
+      <c r="M427" s="7">
+        <v>10360</v>
       </c>
     </row>
     <row r="428" spans="1:13" x14ac:dyDescent="0.25">
@@ -17996,17 +18008,17 @@
       <c r="E428" s="4">
         <v>542</v>
       </c>
-      <c r="F428" s="4">
-        <v>1.847</v>
+      <c r="F428" s="9">
+        <v>1847</v>
       </c>
       <c r="G428" s="4">
         <v>938</v>
       </c>
-      <c r="H428" s="4">
-        <v>3.8319999999999999</v>
-      </c>
-      <c r="I428" s="4">
-        <v>3.3940000000000001</v>
+      <c r="H428" s="9">
+        <v>3832</v>
+      </c>
+      <c r="I428" s="9">
+        <v>3394</v>
       </c>
       <c r="J428" s="4">
         <v>501</v>
@@ -18017,8 +18029,8 @@
       <c r="L428" s="4">
         <v>30</v>
       </c>
-      <c r="M428" s="5">
-        <v>11.218</v>
+      <c r="M428" s="7">
+        <v>11218</v>
       </c>
     </row>
     <row r="429" spans="1:13" x14ac:dyDescent="0.25">
@@ -18032,20 +18044,20 @@
       <c r="D429" s="4">
         <v>212</v>
       </c>
-      <c r="E429" s="4">
-        <v>1.522</v>
-      </c>
-      <c r="F429" s="4">
-        <v>1.645</v>
+      <c r="E429" s="9">
+        <v>1522</v>
+      </c>
+      <c r="F429" s="9">
+        <v>1645</v>
       </c>
       <c r="G429" s="4">
         <v>930</v>
       </c>
-      <c r="H429" s="4">
-        <v>3.02</v>
-      </c>
-      <c r="I429" s="4">
-        <v>3.1669999999999998</v>
+      <c r="H429" s="9">
+        <v>3020</v>
+      </c>
+      <c r="I429" s="9">
+        <v>3167</v>
       </c>
       <c r="J429" s="4">
         <v>514</v>
@@ -18056,8 +18068,8 @@
       <c r="L429" s="4">
         <v>33</v>
       </c>
-      <c r="M429" s="5">
-        <v>11.195</v>
+      <c r="M429" s="7">
+        <v>11195</v>
       </c>
     </row>
     <row r="430" spans="1:13" x14ac:dyDescent="0.25">
@@ -18073,20 +18085,20 @@
       <c r="D430" s="4">
         <v>32</v>
       </c>
-      <c r="E430" s="4">
-        <v>1.036</v>
-      </c>
-      <c r="F430" s="4">
-        <v>1.6739999999999999</v>
-      </c>
-      <c r="G430" s="4">
-        <v>1.5429999999999999</v>
-      </c>
-      <c r="H430" s="4">
-        <v>3.8380000000000001</v>
-      </c>
-      <c r="I430" s="4">
-        <v>2.823</v>
+      <c r="E430" s="9">
+        <v>1036</v>
+      </c>
+      <c r="F430" s="9">
+        <v>1674</v>
+      </c>
+      <c r="G430" s="9">
+        <v>1543</v>
+      </c>
+      <c r="H430" s="9">
+        <v>3838</v>
+      </c>
+      <c r="I430" s="9">
+        <v>2823</v>
       </c>
       <c r="J430" s="4">
         <v>506</v>
@@ -18097,8 +18109,8 @@
       <c r="L430" s="4">
         <v>15</v>
       </c>
-      <c r="M430" s="5">
-        <v>11.590999999999999</v>
+      <c r="M430" s="7">
+        <v>11591</v>
       </c>
     </row>
     <row r="431" spans="1:13" x14ac:dyDescent="0.25">
@@ -18112,20 +18124,20 @@
       <c r="D431" s="4">
         <v>194</v>
       </c>
-      <c r="E431" s="4">
-        <v>2.218</v>
-      </c>
-      <c r="F431" s="4">
-        <v>1.3560000000000001</v>
-      </c>
-      <c r="G431" s="4">
-        <v>1.407</v>
-      </c>
-      <c r="H431" s="4">
-        <v>3.0179999999999998</v>
-      </c>
-      <c r="I431" s="4">
-        <v>2.5190000000000001</v>
+      <c r="E431" s="9">
+        <v>2218</v>
+      </c>
+      <c r="F431" s="9">
+        <v>1356</v>
+      </c>
+      <c r="G431" s="9">
+        <v>1407</v>
+      </c>
+      <c r="H431" s="9">
+        <v>3018</v>
+      </c>
+      <c r="I431" s="9">
+        <v>2519</v>
       </c>
       <c r="J431" s="4">
         <v>443</v>
@@ -18136,8 +18148,8 @@
       <c r="L431" s="4">
         <v>30</v>
       </c>
-      <c r="M431" s="5">
-        <v>11.385</v>
+      <c r="M431" s="7">
+        <v>11385</v>
       </c>
     </row>
     <row r="432" spans="1:13" x14ac:dyDescent="0.25">
@@ -18153,20 +18165,20 @@
       <c r="D432" s="4">
         <v>27</v>
       </c>
-      <c r="E432" s="4">
-        <v>1.1950000000000001</v>
-      </c>
-      <c r="F432" s="4">
-        <v>1.7290000000000001</v>
-      </c>
-      <c r="G432" s="4">
-        <v>1.1930000000000001</v>
-      </c>
-      <c r="H432" s="4">
-        <v>2.7130000000000001</v>
-      </c>
-      <c r="I432" s="4">
-        <v>2.0790000000000002</v>
+      <c r="E432" s="9">
+        <v>1195</v>
+      </c>
+      <c r="F432" s="9">
+        <v>1729</v>
+      </c>
+      <c r="G432" s="9">
+        <v>1193</v>
+      </c>
+      <c r="H432" s="9">
+        <v>2713</v>
+      </c>
+      <c r="I432" s="9">
+        <v>2079</v>
       </c>
       <c r="J432" s="4">
         <v>320</v>
@@ -18177,8 +18189,8 @@
       <c r="L432" s="4">
         <v>24</v>
       </c>
-      <c r="M432" s="5">
-        <v>9.3729999999999993</v>
+      <c r="M432" s="7">
+        <v>9373</v>
       </c>
     </row>
     <row r="433" spans="1:13" x14ac:dyDescent="0.25">
@@ -18192,20 +18204,20 @@
       <c r="D433" s="4">
         <v>152</v>
       </c>
-      <c r="E433" s="4">
-        <v>2.1989999999999998</v>
-      </c>
-      <c r="F433" s="4">
-        <v>1.3839999999999999</v>
-      </c>
-      <c r="G433" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="H433" s="4">
-        <v>1.988</v>
-      </c>
-      <c r="I433" s="4">
-        <v>1.6060000000000001</v>
+      <c r="E433" s="9">
+        <v>2199</v>
+      </c>
+      <c r="F433" s="9">
+        <v>1384</v>
+      </c>
+      <c r="G433" s="9">
+        <v>1200</v>
+      </c>
+      <c r="H433" s="9">
+        <v>1988</v>
+      </c>
+      <c r="I433" s="9">
+        <v>1606</v>
       </c>
       <c r="J433" s="4">
         <v>236</v>
@@ -18216,8 +18228,8 @@
       <c r="L433" s="4">
         <v>25</v>
       </c>
-      <c r="M433" s="5">
-        <v>8.9719999999999995</v>
+      <c r="M433" s="7">
+        <v>8972</v>
       </c>
     </row>
     <row r="434" spans="1:13" x14ac:dyDescent="0.25">
@@ -18233,20 +18245,20 @@
       <c r="D434" s="4">
         <v>25</v>
       </c>
-      <c r="E434" s="4">
-        <v>1.2270000000000001</v>
-      </c>
-      <c r="F434" s="4">
-        <v>1.661</v>
-      </c>
-      <c r="G434" s="4">
-        <v>1.133</v>
-      </c>
-      <c r="H434" s="4">
-        <v>1.7330000000000001</v>
-      </c>
-      <c r="I434" s="4">
-        <v>1.4330000000000001</v>
+      <c r="E434" s="9">
+        <v>1227</v>
+      </c>
+      <c r="F434" s="9">
+        <v>1661</v>
+      </c>
+      <c r="G434" s="9">
+        <v>1133</v>
+      </c>
+      <c r="H434" s="9">
+        <v>1733</v>
+      </c>
+      <c r="I434" s="9">
+        <v>1433</v>
       </c>
       <c r="J434" s="4">
         <v>191</v>
@@ -18257,8 +18269,8 @@
       <c r="L434" s="4">
         <v>40</v>
       </c>
-      <c r="M434" s="5">
-        <v>7.5529999999999999</v>
+      <c r="M434" s="7">
+        <v>7553</v>
       </c>
     </row>
     <row r="435" spans="1:13" x14ac:dyDescent="0.25">
@@ -18272,17 +18284,17 @@
       <c r="D435" s="4">
         <v>181</v>
       </c>
-      <c r="E435" s="4">
-        <v>2.2549999999999999</v>
-      </c>
-      <c r="F435" s="4">
-        <v>1.2130000000000001</v>
+      <c r="E435" s="9">
+        <v>2255</v>
+      </c>
+      <c r="F435" s="9">
+        <v>1213</v>
       </c>
       <c r="G435" s="4">
         <v>914</v>
       </c>
-      <c r="H435" s="4">
-        <v>1.4079999999999999</v>
+      <c r="H435" s="9">
+        <v>1408</v>
       </c>
       <c r="I435" s="4">
         <v>911</v>
@@ -18296,8 +18308,8 @@
       <c r="L435" s="4">
         <v>31</v>
       </c>
-      <c r="M435" s="5">
-        <v>7.1840000000000002</v>
+      <c r="M435" s="7">
+        <v>7184</v>
       </c>
     </row>
     <row r="436" spans="1:13" x14ac:dyDescent="0.25">
@@ -18313,20 +18325,20 @@
       <c r="D436" s="4">
         <v>42</v>
       </c>
-      <c r="E436" s="4">
-        <v>1.3759999999999999</v>
-      </c>
-      <c r="F436" s="4">
-        <v>1.417</v>
+      <c r="E436" s="9">
+        <v>1376</v>
+      </c>
+      <c r="F436" s="9">
+        <v>1417</v>
       </c>
       <c r="G436" s="4">
         <v>931</v>
       </c>
-      <c r="H436" s="4">
-        <v>1.2869999999999999</v>
-      </c>
-      <c r="I436" s="4">
-        <v>1.026</v>
+      <c r="H436" s="9">
+        <v>1287</v>
+      </c>
+      <c r="I436" s="9">
+        <v>1026</v>
       </c>
       <c r="J436" s="4">
         <v>129</v>
@@ -18337,8 +18349,8 @@
       <c r="L436" s="4">
         <v>34</v>
       </c>
-      <c r="M436" s="5">
-        <v>6.327</v>
+      <c r="M436" s="7">
+        <v>6327</v>
       </c>
     </row>
     <row r="437" spans="1:13" x14ac:dyDescent="0.25">
@@ -18352,8 +18364,8 @@
       <c r="D437" s="4">
         <v>211</v>
       </c>
-      <c r="E437" s="4">
-        <v>2.77</v>
+      <c r="E437" s="9">
+        <v>2770</v>
       </c>
       <c r="F437" s="4">
         <v>786</v>
@@ -18361,8 +18373,8 @@
       <c r="G437" s="4">
         <v>640</v>
       </c>
-      <c r="H437" s="4">
-        <v>1.0349999999999999</v>
+      <c r="H437" s="9">
+        <v>1035</v>
       </c>
       <c r="I437" s="4">
         <v>519</v>
@@ -18376,8 +18388,8 @@
       <c r="L437" s="4">
         <v>38</v>
       </c>
-      <c r="M437" s="5">
-        <v>6.2640000000000002</v>
+      <c r="M437" s="7">
+        <v>6264</v>
       </c>
     </row>
     <row r="438" spans="1:13" x14ac:dyDescent="0.25">
@@ -18393,8 +18405,8 @@
       <c r="D438" s="4">
         <v>46</v>
       </c>
-      <c r="E438" s="4">
-        <v>1.923</v>
+      <c r="E438" s="9">
+        <v>1923</v>
       </c>
       <c r="F438" s="4">
         <v>753</v>
@@ -18402,8 +18414,8 @@
       <c r="G438" s="4">
         <v>562</v>
       </c>
-      <c r="H438" s="4">
-        <v>1.095</v>
+      <c r="H438" s="9">
+        <v>1095</v>
       </c>
       <c r="I438" s="4">
         <v>695</v>
@@ -18417,8 +18429,8 @@
       <c r="L438" s="4">
         <v>31</v>
       </c>
-      <c r="M438" s="5">
-        <v>5.2389999999999999</v>
+      <c r="M438" s="7">
+        <v>5239</v>
       </c>
     </row>
     <row r="439" spans="1:13" x14ac:dyDescent="0.25">
@@ -18432,8 +18444,8 @@
       <c r="D439" s="4">
         <v>255</v>
       </c>
-      <c r="E439" s="4">
-        <v>3.0630000000000002</v>
+      <c r="E439" s="9">
+        <v>3063</v>
       </c>
       <c r="F439" s="4">
         <v>324</v>
@@ -18456,8 +18468,8 @@
       <c r="L439" s="4">
         <v>32</v>
       </c>
-      <c r="M439" s="5">
-        <v>5.4649999999999999</v>
+      <c r="M439" s="7">
+        <v>5465</v>
       </c>
     </row>
     <row r="440" spans="1:13" x14ac:dyDescent="0.25">
@@ -18473,8 +18485,8 @@
       <c r="D440" s="4">
         <v>109</v>
       </c>
-      <c r="E440" s="4">
-        <v>1.9570000000000001</v>
+      <c r="E440" s="9">
+        <v>1957</v>
       </c>
       <c r="F440" s="4">
         <v>262</v>
@@ -18497,8 +18509,8 @@
       <c r="L440" s="4">
         <v>29</v>
       </c>
-      <c r="M440" s="5">
-        <v>4.0940000000000003</v>
+      <c r="M440" s="7">
+        <v>4094</v>
       </c>
     </row>
     <row r="441" spans="1:13" x14ac:dyDescent="0.25">
@@ -18512,8 +18524,8 @@
       <c r="D441" s="4">
         <v>415</v>
       </c>
-      <c r="E441" s="4">
-        <v>2.5739999999999998</v>
+      <c r="E441" s="9">
+        <v>2574</v>
       </c>
       <c r="F441" s="4">
         <v>111</v>
@@ -18536,8 +18548,8 @@
       <c r="L441" s="4">
         <v>23</v>
       </c>
-      <c r="M441" s="5">
-        <v>4.3639999999999999</v>
+      <c r="M441" s="7">
+        <v>4364</v>
       </c>
     </row>
     <row r="442" spans="1:13" x14ac:dyDescent="0.25">
@@ -18553,8 +18565,8 @@
       <c r="D442" s="4">
         <v>140</v>
       </c>
-      <c r="E442" s="4">
-        <v>1.524</v>
+      <c r="E442" s="9">
+        <v>1524</v>
       </c>
       <c r="F442" s="4">
         <v>84</v>
@@ -18577,8 +18589,8 @@
       <c r="L442" s="4">
         <v>18</v>
       </c>
-      <c r="M442" s="5">
-        <v>2.6680000000000001</v>
+      <c r="M442" s="7">
+        <v>2668</v>
       </c>
     </row>
     <row r="443" spans="1:13" x14ac:dyDescent="0.25">
@@ -18592,8 +18604,8 @@
       <c r="D443" s="4">
         <v>400</v>
       </c>
-      <c r="E443" s="4">
-        <v>1.746</v>
+      <c r="E443" s="9">
+        <v>1746</v>
       </c>
       <c r="F443" s="4">
         <v>26</v>
@@ -18616,8 +18628,8 @@
       <c r="L443" s="4">
         <v>14</v>
       </c>
-      <c r="M443" s="5">
-        <v>3.02</v>
+      <c r="M443" s="7">
+        <v>3020</v>
       </c>
     </row>
     <row r="444" spans="1:13" x14ac:dyDescent="0.25">
@@ -18633,8 +18645,8 @@
       <c r="D444" s="4">
         <v>392</v>
       </c>
-      <c r="E444" s="4">
-        <v>1.4</v>
+      <c r="E444" s="9">
+        <v>1400</v>
       </c>
       <c r="F444" s="4">
         <v>29</v>
@@ -18657,8 +18669,8 @@
       <c r="L444" s="4">
         <v>10</v>
       </c>
-      <c r="M444" s="5">
-        <v>2.5529999999999999</v>
+      <c r="M444" s="7">
+        <v>2553</v>
       </c>
     </row>
     <row r="445" spans="1:13" x14ac:dyDescent="0.25">
@@ -18666,14 +18678,14 @@
       <c r="B445" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C445" s="4">
-        <v>1.0760000000000001</v>
+      <c r="C445" s="9">
+        <v>1076</v>
       </c>
       <c r="D445" s="4">
         <v>673</v>
       </c>
-      <c r="E445" s="4">
-        <v>1.68</v>
+      <c r="E445" s="9">
+        <v>1680</v>
       </c>
       <c r="F445" s="4">
         <v>10</v>
@@ -18696,8 +18708,8 @@
       <c r="L445" s="4">
         <v>21</v>
       </c>
-      <c r="M445" s="5">
-        <v>3.7810000000000001</v>
+      <c r="M445" s="7">
+        <v>3781</v>
       </c>
     </row>
     <row r="446" spans="1:13" x14ac:dyDescent="0.25">
@@ -18705,29 +18717,29 @@
         <v>12</v>
       </c>
       <c r="B446" s="6"/>
-      <c r="C446" s="5">
-        <v>3.1320000000000001</v>
-      </c>
-      <c r="D446" s="5">
-        <v>4.2350000000000003</v>
-      </c>
-      <c r="E446" s="5">
-        <v>32.963999999999999</v>
-      </c>
-      <c r="F446" s="5">
-        <v>19.635000000000002</v>
-      </c>
-      <c r="G446" s="5">
-        <v>25.178999999999998</v>
-      </c>
-      <c r="H446" s="5">
-        <v>54.18</v>
-      </c>
-      <c r="I446" s="5">
-        <v>41.997</v>
-      </c>
-      <c r="J446" s="5">
-        <v>4.9139999999999997</v>
+      <c r="C446" s="7">
+        <v>3132</v>
+      </c>
+      <c r="D446" s="7">
+        <v>4235</v>
+      </c>
+      <c r="E446" s="7">
+        <v>32964</v>
+      </c>
+      <c r="F446" s="7">
+        <v>19635</v>
+      </c>
+      <c r="G446" s="7">
+        <v>25179</v>
+      </c>
+      <c r="H446" s="7">
+        <v>54180</v>
+      </c>
+      <c r="I446" s="7">
+        <v>41997</v>
+      </c>
+      <c r="J446" s="7">
+        <v>4914</v>
       </c>
       <c r="K446" s="5">
         <v>861</v>
@@ -18735,12 +18747,32 @@
       <c r="L446" s="5">
         <v>686</v>
       </c>
-      <c r="M446" s="5">
-        <v>187.78299999999999</v>
+      <c r="M446" s="7">
+        <v>187783</v>
+      </c>
+    </row>
+    <row r="447" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A447" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="448" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A448" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A317:B317"/>
+    <mergeCell ref="A343:B343"/>
+    <mergeCell ref="A369:B369"/>
+    <mergeCell ref="A395:B395"/>
+    <mergeCell ref="A421:B421"/>
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="A161:B161"/>
+    <mergeCell ref="A187:B187"/>
+    <mergeCell ref="A213:B213"/>
+    <mergeCell ref="A239:B239"/>
     <mergeCell ref="A265:B265"/>
     <mergeCell ref="A291:B291"/>
     <mergeCell ref="A5:B5"/>
@@ -18749,16 +18781,6 @@
     <mergeCell ref="A83:B83"/>
     <mergeCell ref="A109:B109"/>
     <mergeCell ref="A135:B135"/>
-    <mergeCell ref="A4:M4"/>
-    <mergeCell ref="A161:B161"/>
-    <mergeCell ref="A187:B187"/>
-    <mergeCell ref="A213:B213"/>
-    <mergeCell ref="A239:B239"/>
-    <mergeCell ref="A317:B317"/>
-    <mergeCell ref="A343:B343"/>
-    <mergeCell ref="A369:B369"/>
-    <mergeCell ref="A395:B395"/>
-    <mergeCell ref="A421:B421"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
